--- a/Personality Prediction - Analyze/Dataset/Dataset/chamndod/dataset_from_mypersona_english.xlsx
+++ b/Personality Prediction - Analyze/Dataset/Dataset/chamndod/dataset_from_mypersona_english.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>user_id</t>
   </si>
@@ -229,13 +229,259 @@
   </si>
   <si>
     <t>Hmmmm I'm just an ordinary folk do not equate me with you Wew '' Create I'm from a small thrift taught to give to others click help me help me help me help me please help me pliss Pain my feet o O PRance versus SPain BB missing pass D DaG DiG DuG D Person Idiot invite 2960880c</t>
+  </si>
+  <si>
+    <t>Henry Prasetio</t>
+  </si>
+  <si>
+    <t>Oscar Edward</t>
+  </si>
+  <si>
+    <t>Qaul Siregar</t>
+  </si>
+  <si>
+    <t>Fajar Jauhari</t>
+  </si>
+  <si>
+    <t>Abimanyu Anggito Pramukti</t>
+  </si>
+  <si>
+    <t>Rizky Oktafiani</t>
+  </si>
+  <si>
+    <t>Yusuf Fathony</t>
+  </si>
+  <si>
+    <t>Arifin Tan</t>
+  </si>
+  <si>
+    <t>Jonathan Ryd</t>
+  </si>
+  <si>
+    <t>Anton Hartanto</t>
+  </si>
+  <si>
+    <t>Nicholas Franko</t>
+  </si>
+  <si>
+    <t>Shandy Phodiansa</t>
+  </si>
+  <si>
+    <t>Albert CL</t>
+  </si>
+  <si>
+    <t>Jeffryanto Wijaya</t>
+  </si>
+  <si>
+    <t>Ahmad Fahmi Taufik</t>
+  </si>
+  <si>
+    <t>Arya Dharma</t>
+  </si>
+  <si>
+    <t>Tesya Febby Lestari</t>
+  </si>
+  <si>
+    <t>Andika Kandrianto</t>
+  </si>
+  <si>
+    <t>Fransiska S</t>
+  </si>
+  <si>
+    <t>Harve Doank</t>
+  </si>
+  <si>
+    <t>Sri Andria Fransiska</t>
+  </si>
+  <si>
+    <t>Dhiva Andika Sembiring</t>
+  </si>
+  <si>
+    <t>Triladias Puteri</t>
+  </si>
+  <si>
+    <t>Mohammad Afif</t>
+  </si>
+  <si>
+    <t>Rizki Gunawan</t>
+  </si>
+  <si>
+    <t>Vincent Fernandes</t>
+  </si>
+  <si>
+    <t>Felicia Shantio</t>
+  </si>
+  <si>
+    <t>Aldrian Kwan</t>
+  </si>
+  <si>
+    <t>Vito Christian</t>
+  </si>
+  <si>
+    <t>Bellatasya Unrica</t>
+  </si>
+  <si>
+    <t>Daniel Stefhanus</t>
+  </si>
+  <si>
+    <t>Rafid Chairullah</t>
+  </si>
+  <si>
+    <t>Randy Rachmadi</t>
+  </si>
+  <si>
+    <t>Amadeus Xin</t>
+  </si>
+  <si>
+    <t>Derwin Suhartono</t>
+  </si>
+  <si>
+    <t>Adeliana Yuwono</t>
+  </si>
+  <si>
+    <t>Bran Don</t>
+  </si>
+  <si>
+    <t>Samuel Halim</t>
+  </si>
+  <si>
+    <t>Filbert Invoker</t>
+  </si>
+  <si>
+    <t>Brian Haessel</t>
+  </si>
+  <si>
+    <t>Munif Faisol Abdul Rahman</t>
+  </si>
+  <si>
+    <t>Kamisama Suzu derp face v 13 April 2014 please ask for information dong title song that time the Ricci to the discotheque then kill the person wear cyanide spray there is a disco song there yanhg know what title it For those who are wondering this is Misa 2 0 has her own page On Facebook Official ENOZ banner not turn off your speakers Yeah sure A good tip Half naked batman with batman shorts drinking something while rollerskating Your argument is invalid But does not your phone ring or something DAT LEGS Lucky panda The first one is actually kinda cool Leopardwoman Maybe Teach me master Still ugly Where dafuq is his head in pic 2 Do not cry because it's over Smile because it happened Dr Seuss At SMP 45 for MGMP At SMP 45 for MGMP teman2 cb copy this code and paste it in google search sqrt cos x Cos 200 x sqrt abs x 0 7 4 xx 0 01 sqrt 9 x 2 sqrt 9 x 2 from 4 5 to 4 5 please see the result 9gag Everything is okay in the end If it's not okay then it's not the end aLoNe SaMa 4 11 11 Just an usual dinner With friends at Cafe 12 Do not expect things to happen It's better to feel surprised than to feel disappointed aLoNe SaMa Deal with what I ve dealt with feel what I've survived what I've survived and overcome what I overcame then you can judge Me aLoNe SaMa I know life is not easy but this f ing ridiculous aLoNe SaMa It is not hard to find the truth What is it?</t>
+  </si>
+  <si>
+    <t>Rip indognesia gaming Ngok2 Happy CNY for the notes Nidji Clear me dong good good good Freak Nigga aw shit nigga Hugo well fuck you biatch Blood lad why love is such a sweet illusion bosen main pokemon own pokemmo eu pokemon Online happy happy happy cresent friend On FB grew more gajelas 3 biatch you're fabulous guren yumiya full number It's just repeated 4x</t>
+  </si>
+  <si>
+    <t>Unfettered individualism of the United States that does not free health care or high education Wealth is rich and into modern Chinese-style environmental degradation Economic difficulties and internal tensions in Europe The Mexican-style narcotics watch whatever it says still MU in the heart Someone knows not MU opponent Chelsea when his teeth offside his cheek kayak runway plane Who is that Wkwkwk Finally Indonesia wins also 2 1 thailand YESSS Wah steady kalipun this PLN Say no da again die lights I hate all the people of Indonesia 6 0 laos Menanggg telakk Why why everyone's status about love Hahahaha Goool Indonesia 5 1 malaysia indonesia win Gooool Indonesia 4 1 malaysia AYOO INDONESIA Bkn I mean to like that Cuscus Every time I see your face it's like to spit in your face Wkwkwkwk MU 7 1 Blackburn Won the landscape I'm sorry that has hurt your heart is not my intention to hurt you You always make me smile MU take MU 2 0 Wigan Round p First MU 1 0 WIGAN MU VS WIGAN Yesss Indonesia wins Come on Just kyak was groggy Ooh Stupid times any fabregas Gara2 he's a penalty do not want to cut the bull Go to berastagi in wajir Hope so much in kFC walkot Yes allah Make it easy me in facing exam tomorrow If i wrong talk to me Today is the most unpleasant Day Wrong Gk bsa watch ball Dsr adek ugly Mantaaaap MU wins Bravo in dome Otw to terrain Widih Macet banget this on the way going to long fields Otw to high hill Hemmmm For everything thanks why Hopefully qaul become a better person and become the pride of both parents Salut for PLN There will be a fasting in there pulak mati lampu Nunggu kakak kesia pulng lecture at kfc petronas Waduh Log in 8 16 Wuih cantiknya this bandung jogja I am coming wkwkwkwkwkwkwk Yes gods Give The strength and ease of our hungry brothers in NTT finally hp ku true also wkwkwkwkwkwkwk Mw prayer but no sarna sna mna ini In the perjal N rantau prapat I'm a walking animal on my way to hell Aghhhhhhh Why to lose You're beautiful Dead lamps In fact want to learn mandarin I think my mama is never too late byr electricity is really like this your service PLN Do not cry I do not see facebook Komen Kalok kayak like this continue what the word bad world imitation time so people Ma go ayo Likes you Class is not open no friends Complete is my suffering you have a sissy kreak anyway again Huhhh dtng speed so no friends Why You do not care me Kesiannya adek Me 2 days in hospital rapidly heal ca Mau makan2 It's boogie time Lapers Eating fried bird steady Eating steady fried birds Home back to die lamp cape deh How happy to have a sister You give me support Do not KREAK time is so people Bored wait Main facebook use HP people Do not have capital WADUH There is a giant in front of me KABUR Lg jalan2 ini da yG Mau iKut g Tp jalan2 antar la la laughing laugh laug N porridge and ketoprak steady Dead lights Education is war Finally GILA les mornings play FB Ouch brother sick Duh my brother sick Pengen eat pempek cheat is beautiful Difficult exam times from the planet mananya that make this problem Test exam ujiaaaaaan lagiiiiiii mau exam monday matila aku ini ada Test mandarin also aduuuuuuuuuuuuuuuuuuuuuuuuuuu Yo gabba gabba Thanks for all that ngucapin waiting for his prize why hehehehe I'm thirsty Woy do not eat in front of me lah so want this Laper Ouch Do you want to be my girlfriend Please accept me Today exam physics Doain why woi Gg Hurry Hurry already can not stand this anymore in mdn want plg kemedan Lg in jogja</t>
+  </si>
+  <si>
+    <t>Shapenya masya allah 3 laugh first lah There is a meaning behind all the signs Fuck you jar just fuck you jokes era smp Turn dream dreams again dream long self-immersed Ironically that answers everything and I hope you're the one I share my life with HOLY SHIT Drunk brother boooommmmmmmmm Write something</t>
+  </si>
+  <si>
+    <t>Happy New Year 2017 Easy peasy Purwokerto beach vacation Artruckstic artistic truck It's where my demons hide demons imaginedragons Every way to a tourist attraction must always be asked the same thing In Jakarta there is a place like this not Jogja peaceful holiday pure Welcome 2016 Eliminate a moment of trouble in your mind Enjoy Your life is the holiday peak it binus The bitter experience will be a sweet thing to tell Fighting for your live reagge bobmarley Children today have trouble even being photographed instead of assisted Eid al-Adha 1436 H iduladha 1436h Indonesia is not to be acknowledged but to be fought Merdeka Hello Path myfirstPost Hello Instagram myfirstPost Hello Facebook myfirstPost</t>
+  </si>
+  <si>
+    <t>Eighttwenty hm can i just asdfghjkl i know that i should not do that how crazy i am THE MEANING OF LIFE HD Indonesian Subtitles for how abah ngeupload photos pke facebook his son forgot in logout kaaahhhh Homesick laugh FINISH What do you think laugh out loud maybe you can not Changes me give up astagfirullah bungas banar pian is suitable dear friend crazy crazy crazy banar opponent pian hypocrite is ahay 3 thanks that sorry ngucapin can not reply one one yaaa D Makasih who ngucapin Sorry can not reply one one yaaaaa D I hate my hair Now ask for effect again if anti laughing is waiting there cally p i say you what the hell son patiently grave wide child science is fun fun and fun not stiff and not lose the same social child Big bang big bang we're back again One more time unfortunately No way way neomu swipge tto nami dwae m now it's dated how many inspirations can not kill me mamaaaa TT Behamukan on facebook cba lngsng behdpan plng betamparan He he bonjour boomerang m Because I'm not a robot do not ever scold me when my nilaiku plummet slahkan time given very short network babsssssss what's wrong nahh Risks gamers lalala suddenly this comp lab became hot die dear gin kam there aahhahahaha Moon sorry to be born and inner friend of m the difference of high school Banua sma high school GIBS apadehh heyaaaa kampret sekretret kampretnya kampret this is more kampret drpda the most campret basic kampret thank you for giving a beautiful memories Alhamdulillah yaAllah what are you looking for own characteristic lahh do not ikut2 Diikutin so uncomfortable like this baby you light up my world like body number else wish me luck yes God bismillah yes God o not forever I'm caught and laughing because I'm happy no longer do you make lau lau lau because your self who do not menuu tuu tuuuuuu front Well behind him nauzubillah busukk Ha Ha manaa RT in la Ilatlr God Can I be as strong as God? Are there any friends like shbt2 keke Tuhan msih in ULYAULYAAA RT in WIWAAAY RT in syifaaayuniar '' I want to know after I'm not there how I am recalled '' SKUT UN last dilemma between passionate spirit 04 001 018 7 inshaAllah can ob Aaaaa RT in omgugel Who want to follow where the voice you think I'm stupid not deh gakkk HAHA in Alfacano in HarryPotterIndo HPIMop HPIfolback Slytherin rzkkyoktvia ravenclaw thank you brother Cakka pcar Draco fiancé Cedric Husband HAHAHAHAA make something ordinary become extraordinary D Stalker B stupid I am I'm smiling unconscious smile unaware myself it turns out I was daydreaming you why you always just you fill my brain krna you slalu sja you colonize my heart you you are you again oh god please cant'stop thingking about you stop talking about you b GOBLOK TAI MAMEH DOG PIG YG MAKE FB KU TADI KABABAK HAHA IBLIS JUA let's start playing PB again asekkk Kka i miss you so much lafyu 3 hahahaa goodluck my brother suksess who bner smangat play basketnya prayer CL's formuu p lafyu tomorrow has departed o hwahh dark night night xx HAHA be patient NHADIA PUTRI INDRI RIANTINA long time no play Pottermore once play cengo forget how HAHAA Who kada happy HAHAHA again bm worse if there klakuanku who do not accept mhon dimaklumi ii so no PD aku xx adohh adohh</t>
+  </si>
+  <si>
+    <t>Asik iya speechnya Mudah2an all that is good that he want to materialize Science 3 years ago Woohohoho Aditya Gandhi Pratama this game D'mitry Adam N all Antania Shinta Yuwono Nurul Novianti Wijaya hai cockroach fans 8 years ago 4 years ago wandering in Frankfurt am Main Because of the diversity of Aditya Gandhi Pratama this kind of bike is cool for teaching Before up minimoto D Uuuuhh Mia Nur Ikhsanti Antania Shinta Yuwono this motoGP racer real Aditya Gandhi Pratama Aditya Gandhi Pratama Antania Shinta Yuwono look how beautiful is this Emmmh Wat Anyone can not see the situation cool Adenie Abubakar Alaydrus Rosita Evillya and friends everywhere are especially in Berlin hati2 Hope bad events do not happen 4 years ago Ooh how I miss this time Stress could be fuel for our progress Hoahahaha 3 years ago Beautiful place beautiful scenery Beautiful story First blue hour after Very long time Now I remember why I love it This place when it was built Tau know already so Today's snapshot Got the chance to get this place during blue hour Carbon fibeeerr OV Magnificent decoration by at 4sdecor High speed turning stoppie The redaction of smoke Wawan's signature Wawan Tembong ready Wawan Tembong asean freestyle champion ready to go Cool beautiful place to hold your Events Nice building in Alam Sutra decorated by at 4sdecor Explore What a place Old time no motret blue hour It used to be a little bored afternoon out for just any motret with the sky background like this Kok now it's hard Aditya Gandhi Pratama It's a cool person is really apal really I think he is the same trek Wedding Decoration by at 4sdecor Chakra a wedding hall found at sister Breeze BSD is one fine lace to hold your wedding In between Alhamdulillah brothers and the citizens are all enthusiastic with the ceremony and race of the race Proven little children can be a ceremony officer With minimal preparation The competition continues on the stairs Sunday 21 August 2016 Teamwork a T it's finest Anak2 is playing in the field of a school in West Jakarta Yap school field Awkward Hahaha Good morning Pitstop by Yamaha Racing Colorful Enjoy the beauty 2 years ago From the window of the boardroom Good morning from indonesia The house there is a empang Empang there his house In this area every house There is an average of one pond and one plot of rice fields This is a beautiful village and should continue like this Beautiful and simple home Comfortable there is always food D next to the rice fields next to the bed Sleep accompanied by the sound of frogs and crickets The path has been cemented But the scenery around tetep refreshing cool and cool The air Something I rarely see What comedy scene really bene Totalitas Lha kok kok This is the one who ever driven threatened to be killed it is normal May more and more that moved Adenie Abubakar Alaydrus 5 years ago hahaha Enterprises like this and people who watch sometimes the response Just so the period Hard to make DD Do kakean cangkem There are just anybody Acting Though he's cool singing Lens lens lens first buy Start ngerasain tajemnya motret wear DSLR start seneng toy depth of field narrow Now it's time move on Frankfurt am Main City where there is a tall building in germany After traveling around finally can spot a decent photo Memory several years Ago Money can not buy everything Aditya Gandhi Pratama is cool hahaha Early try HDR subuh2 from windows Dresden room 4 years ago Nemu rest unedited photos in folder IIMS 2016 Romantic candle and decor by at 4sdecor Who do not want to Have such a wedding place like this Art of welding Let's have dinner Decorations by at 4sdecor Ducati Scrambler IIMS 2016 This gonna be a long night in 4sdecor decorated room Long table decorated by at 4sdecor IIMS 2016 Hero of KSM Nyiur Booth at Islamic Development Bank 41st annual meeting Tomorrow will be the last day Come and visit us if you have a free Time in ksmnyiur Can panjaang hahahaha Drunk and Bike Much more interesting than drunk and drive Aditya Gandhi Pratama enak iya jalanan Sawarna Beach one of the most attractive tourist destinations only access which happened to be diutakatik so a little complicated time there But still recommended Travel back home from pantai sawarna Just happened to fit sunset pas on mount Hoo 4 years ago Aditya Gandhi Pratama capital D Aditya Gandhi Pratama ginian level also nyetut D'mitry Adam N You fit this like let's say apa2 when you drive you yak cc Antania Shinta Yuwono Aditya Gandhi Pratama there senggolannya also Ok So this ship ships ships to customer who waits for the shpping of their ship Simple but crowded euuuyy Aditya Gandhi Pratama Danielo Petrucci Who's that hahahahaha Take a look at the laugh hahahaha Aditya Gandhi Pratama this simple It can be applied not yes hahaha Okay he just added more variations Her skill Aditya Gandhi Pratama De Breeze BSD One of many interesting Places in South Tangerang One fine moment shared This is funny Bangam Pamulang is Antania Shinta Yuwono Anytime anytime</t>
+  </si>
+  <si>
+    <t>Indonesian people must like this status O the jerk friend is not a friend we have to stay away but we have to embrace and give direction to the bottom chasm Trdekat eg true friend is not that can make all your problems disappear but that will not disappear when you have problem</t>
+  </si>
+  <si>
+    <t>I wonder if it's horoscope who framed as wikipedia but I like what it says For the sake of free football 1 Cyber ??World OFFICIAL PAGE wrote HI DotA2 Gamers Blessed are you guys because mimin will be distributing GIVEAWAY 10 Immortal Items to 10 Lucky Winners so do not miss too well here are PROVISIONS and TERMS to be done by PARTICIPANTS Like Fanpage www facebook com Level1cyberworld SHARE this content to your profile Comment DOTA2Level1 easy wait wait Watch my awesome Battle Camp Replay Download Now my awesome Battle Camp Replay Download Now 2 friends who remember my birthday pfff Thks all Have Great bargaining ability accuracy and meticulous in calculation What work i have 10 years later out what color are you according to your birthday and what does it say about you at stuff battle skill soul pets et cetera make me enjoy this game 5 this prayer You may be worried about your sins with the jnji of Jesus still not brrti bhw You do not have to go to your denial room mngku sin oration letters 15 prayer and promise of jesus to st briggita prayer to st jude Thaddaeus as I remember before antichrist's time will happen Appointment where only good people who msuk heaven and yang msih sin will stay on earth truz yang Live on earth will face the antichrist's time mrpkn the most horrible period therefore do not sin from now and Repent continue 3 because by accepting the chip Your relationship with god akn permanent break therefore do not accept it but for those who do not accept the chip will be killed Remember Actually we are open from this world but in heaven just as jesus continue 2 Antichrist is anti khirstus and this is a great proof that the arrival of God is near a time antikris will offer to us all a Chip to be placed mendahi and hand chip name mondex if Not wrong If you take the chip to the forehead of the hand You then you WILL NEVER ENTER HEAVEN continue 1 Do not be too busy with your work do not be anxious your heart and REPENT because the kingdom of god is near may you not prcy bhw his arrival already dkt but actually the signs of his arrival already looks like murder rape kidnapping terrorist suicide emergence of phenomenon and the emergence of ANTIKRIS continue error all games Fb me swt OOOMGG these friends friends are visiing my profile o Axel Pratama 1136 views Andre Alogra Cilogi 983 views Ch Yvonne Noel 542 views Cornel Sakti 300 views See who views your profile in not to play bljr merely as imprisoned wkwkkw Komp Sealed pswrd lucky me bs open wkwkwk Final battles cpet slow akn unfortunately FB slow think so do you think What do you think What do you think What do you think shit UAS mat I must be ugly ah senin uas mlzzzz Merdeka holiday 2 days yesyesyeysyeses Play ' 'Pet Forest Online' 'in Facebookm Advebture Game SsSsS Sngt ca Pe at school try to go to sleep Jump tiur deh me zz Gme what yes in Fb again nge TOP Kiamat that Has been established Hoamm Yesterday fainted at home fitting home camping wokokokoko Kihrnya Merdeka Also dechhz Ah soon UAS iya Bentar again UAS Zzz Need Study Hard wui I was participating in the painting contest of the district but lost wkwkkwkwk burng ijau and red bird sdng sit wkwkwk Zzzzzzzzzzzz Gk delicious not to play on holidays Finally free from torture Uts wa this into 2kalinya ku publish blue duck wa Widih FB I changed '' Waduh owner Fb Stolen by a Hacker 'and ask for a copy of 1 Milliyar if it wants to be returned Kalo will not be infected Viruses just once click the virus it will spread to all Fb trmsk Fb you iw jijai Buzzz Please do nothhhhhhhhh if you meet hwn rare to publish also yes yes Please' 'Merry chirsmas Happy New Years 2010 all my friends '' ea Rare loh Spa cpet she can contents 30 sunflowers loh New game on NDS Black Ace Red Joker HOW WANT THIS BROWN EGG loh prefect Holiday present 100 100 lv 24 25 december 2009 kok Farm Ville I can not open yes WAA please who want to ambill FINALLY FREE OF MID STORE REVIEW Broommmm bullsed what paan neh yes Lv 21 twenty one XXI Brommmmmmmmmmm kura2 pink Wa Bullsed Collection Arthiqokes lot really wa going in golnya gila2an zzzz marinade I love you poison poison WKWKWKW aw take the kura2ini pity wii funny we yeesess yes YEA Collection rasberries lv 9 1 jedeng Of course I'm is Good Friend we Blupp take this 6 TIMES 5 TIMES 4 TIMES 3 Times twice jeng2 yea yes lv 19 pieces again Finally can also large while oioiooioi jeng2222 lv 16 zz For the sake of buying scarycrows lost green paper money 15 GroARRRRRRRRRRRR CENTER PUSING PUSING PUSING PUSING Kero kro kero iwiwiwiwi Hansen kok ADA cat how lazy how hard to ride lv Its already yes finally not EARTHQUAKE in waw who gangu my grave wkwkkw we Para2 animals yea make me neighbors in farm vile dong Full with Seed yes lv 11 gratisss owwwww yeaaa yee many animals thanks to Hansen and vincent thkzzzzzzzz If no quake I did that klr home and save lives and READY READY TO DIE wow wow My Happy Aquarium upgrade my aquarium Aduhh he said in the news there was an earthquake Saturday 24 09 2009 in jakarta with 8 5 scale ritcher National Earthquake OUCH how NIHHH MAY not be an earthquake Bring me some Anmals in the Farmville please Likes lag is FB I know lohh cheatnya farmville fndnfhcrcingnjfmc '' in on '' in in '' '' '' '' '' 0 oo 0 '' zz ZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZZ moooooooo grass so the cow if the cow so RUMputt awakwkakwkwkwkw yeas wakkakakakak cpetnya I ride lv ye ye yes death ow yea silver this nice wakakkaka lv 7 wew qwq ow yea oww yea yes ewwer My Happy Aquarium lv 3 richard many EGH yes HELP ME how to BE UGLY ELEPHANT SWAN GOAT DUVK RABBIT WARNING For those who play Happy aquariummohon in check aquariumnya every day in order not MATE Wkwkwkkwkwkw k caveat w yes in my clean all aquarium there kucuing her to increasingly understand wkkwkwkw wow nice gfak games akirnya many animals also deh BULLSED ADA GEMPAAAAAAAAAAAAAA real LOH YES ride LV money dying dehh independent yes ow yeaaaaaaaaaaaaaaaaaaaaaaaaaa nice not finally lv 5 my lucky I suspected WA LR THIS RARE GOOD ow Monkey isisnya DRAGON DRAGON BIRD KALO GAK Phoniex AJA aaaaaaaaaaaaaaaa mlzzzzzz zsdfgsgfr zzz yes duck to rabbit dsfs</t>
+  </si>
+  <si>
+    <t>Face Aib when there is a birthday HBD Josephine moga2 close up though rarely who v GBU Heater v HBD Father Long live lahh Shop Jam Jaya Stay Berjaya Thug Life Ea thuglife father birthday boss s Boom Finally get together again Lama no meet Anjayy time friends quality monday holiday MAGER Silent For Jombs I HOPE THIS 'v May be tried Hmm The Lol's Rabbit How to eat instant noodles but do not want instant intention Qq v Again quiet period tiba2 new babe come v cumawow Learning Database is like learning History already term2nya it loh More cool fun Csgo tiba2 Duarrrr SiBiru out OO Tired of this v RIP Pak Sarjono I do not forget your Father and your message until now GBU Holiday with Project Quiz Tests Final Exam In telolet in lah lah The new learn Algo will know v Gw who tell you speak tep Because you bawel Stevandi Steve What do you think now facebook asking First Bekasi just to meet the leftmost man latepost bekasi Doggy Wow same v Asekkk v P At read Duh is already middle of the night still talking about 4 November keepcalm Accepting Artificial Intelligence o Homina Homina Homina spongebob artificialintelligence binus Our Indonesian Hai from IndoStoryCafe is doing market research about Cafe Konsep Sejarah Indonesia We ask for a moment to fill our kusioner according to each opinion Yes Ampunn sultan laughing v Mending nokia is still lbh battery saving v The temptation Nintendo is Coming 'Aaauuuuu v Really o Khilaf first lahh before UTS v Eaa v Impossible v That's Real Wihh this is sure coding again mwlakukan process if else laugh Finally Make Ngoding Game o So Programmer ajaa laugh Create sharing ajaa Mutually attacking their own cage zzz Abang Adek Winner Slow if ow w Ndut alreadyhh Kodingan eat master laugh Hamster can Drift v Hmm Hard yaa nge gotcha his laugh There is a horsea on the toll Cikupa laughing PokemonGo Ads yes yes Try every sales tablet Tabs have age restrictions on Ba usage This American football combined football is cool Flash is same This is a great new invention Less valak same kuntilanak ini mah Valak and lala galau gara2 dibully orang indonesia v Finally barbie choose a new career laugh Real Pokemon Eat Tampanan Mana laugh warTampvan B i F ng IGusti Bagus Agung Oka Berikunya Replace hp this is the bomat already if long laughing This is the name Chicken Egg Tube laugh</t>
+  </si>
+  <si>
+    <t>Plan want dual boot same ubuntu tb tb windows missing its real should i go 2 flb hmm what the fuck 1 step closer when god help you getting 5 sorn rip final testing water team for xeno ifrit gif when Mona Glisa life goal Solo p Baha done xd Imma use taiko class and change my name to hibiki laughing i prob will not go outside tomorrow frieza gg i prob should abandon my light and be fire lord i prob gonna regret this anyone know g this error why dhikip thanks tien xd when gbf want You to farm xeno ifrit vice mvp using uncomplete fire grid life goal sad day 1 progress sub accord 0 xd its possible to get 6 chest wut but sadly i got trash xd fate extra ccc collab event is really annoying i dont need gun anymore like Tien really Increased my luck xd my own sub makes me salty what the fuck i dont need you done 2017 XD wtb 10 tiamat anima Xd khilaf occasionally wkwkwk sale account gbf in reddit produce result button search in facebook group already g there why laugh man this is suc K disappointed already another gold moon gg im done with this game gacha gg It seems stephan chen back in action sadly typical indo ahok lose try gacha rainbow gold moon what the fuck p5 artbook scan laugh intention amer ripjakarta house without dp beneran efekif reference im bored laugh 10 more levels holy shit GG is nice persona 5 plot twist mind blown gg nice train huang long train perfect for mage creed farming yusuke is best persona 5 is a dating sim game with some rpg in it xd eng dub good also kwwk also question on P5 PS4share sad truth behind persona 5 what the fuck seriusan says this is Rip my luck finally bs solo dao xd finally on sub accord gg pretty is bs replacing the main accord xd worth it pingin ngetroll raid wear dsaru on 1 april xd the hair is really long xd Even dragon studying oop Steven Pram best part of the movie got all zeta 10 free roll bugs thank you kmr xd gold moon number and why it always dark chara rip me wrong use sendal person so in Tense next me my baha will be mlb i hope wow alexis open branch XD that diributin even armpitny later if picked new malaysia at protest XD XD finally primal summon number baha hl here i come dear g gotten dinaikin XD Therry Prayogo Finally Op sixxx xd last Step hope they giving blue crystal as 3rd anniv present laugh why sub so close thank you free 10 draw i dont need to suptix her anymore xd pacific rim xd Holy rip my gacha luck ggwp rip money dying indomaret grab new money conscious card atm left in pekalongan Home suddenly rain nyebrang slipper slippers off in the middle of the road g had time to take rip sandals event unk stat is so bad fml xd Saeful Ramadhan laugh just need to wait till 22 then good bye cosmo axe okay good bye ifirt must get ding dong girl how many possibilities korut Bakal nuke indo sad rip Collab part 1 Alisa is the freebie SR Wind Luna is gacha SSR Dark Character is this month's 5 SSR Collab main boss is Losari Hell special boss is Bell Angel Latter is Also playable by getting an achievement in Shadowverse Collab part 2 Play Shadowverse and receive Granblue in game items Likewise play Granblue Fantasy and receive coins elixirs and packs in Shadowplayer There is a time limit for this part 180 to go Therry Prayogo Time for getting sarasa why number Erune wrong alter shadowverse collab xd dark rate up not even one dagger when two monsters met ez done laugh lovin the event summon like just relaised i had enough money from cny to spark kinda want to unlock apsara for djeeta smug face holy another one unlocked this literally Caliogstro finally laugh koshka still op if every round like this solo 90 nm laugh dat katalina bonus is very effective when people are lying about phalanx rip saber venus laugh Gill prob hate his father rip luck how they programmed the girl's consciousness in c dao is so generous Laugh nge see this in animasiin so mixed feeling laugh laugh reroll accord can be between 2 this hold like rip i ve Failed you musashi laugh x got the chicken but i dont play earth xd lancelot got xd rip luck 2016 laughs cant even 2 man rose queen laugh ez game Anthony Nguyen</t>
+  </si>
+  <si>
+    <t>Asdf Hola Lel Say something about this Say something about this Say something about this At LGF 2011 Citraland D Say something about this CHU WHAT if you want to ngeraid know what my dolo like Si herder wokokok apa Bulldog Help Believe in JesusChrist One of my facebook friends challenged all believers to put this on their wall In the Bible it says If you deny me in front of yourpeers I will deny you in front of my Father at the Gates of Heaven This is a simple test If you love God you are not afraid to show it repost thisSee More Let your friends know that you 've sent a free gift Let your friends know that you' ve sent a free gift Let your friends know that you've sent a free gift let your friends know that you've sent a free gift let your friends know that you've sent a free gift let your friends know that you've sent a free gift let your Friends know That you 've sent a free gift Let your friends know that you' ve sent a free gift Let your friends know that you 've sent a free gift 'Ve sent a free gift Let your friends know that you' ve sent a free gift Sent a free gift was the earthquake iya wee gold fish I is not afraid of ghosts number Are you party hard My raid unit and I have just entered the Sunken Ship raid location Let's see Bait check Mechanism check Magic circle check Now where did I put my Scuba tank alibi There is a regular whisky and there is Nessy's Golden Reserve it's distilled magic My raid unit and I have just entered the Sunken Ship raid location Let's see Bait check Mechanism check Magic circle check Now where did I put my Scuba tank I is not Afraid of ghosts number Are you weqs TT</t>
+  </si>
+  <si>
+    <t>Joshua Santoso Casey Ediana Putra Stephanus Sk H 30 Albert just completed level 5 on Angry Gran Radioactive Runaway Play for free on iOS and Android oh social scientist is what better writers deh ouch english lab ugly already Happy Chinese New Year All woi the kids db 2 Make a book tikom already found a blom if you use cs 5 may not be selfish people tu same all yes just want to win alone if losing the same person who wins The A team really nice karate kid really better watch which again iya woi england opponent amrik who won and who eventually ragnarok graduated Cardinalnya copo eventually ragnarok graduated Cardinalnya copo tomorrow is a freedom 2 day to freedom let matnya Doain I can 100 shy maluin you're already big cry pantesnya you so children tk ci cici I copz the bio material is what the wah i Her jtn pkn ini Wah bsk ulum must be bluest cape mlz have been told to make the ulum no intention to meet ruben onsu at mall plizz my dream yesterday back and become m y dream today hockey really I kwkwkwkwkwk woi mandarin gathering today yeah woi mandarin kerjain not the two tasks are completed to stay 2 more kwkwkwkwkwkwk there was a yes seniors shameless seniors alone talk BACOD what else ade grade class brothers taught me that is not true The rich so CACAD wew today do not work novel gara2 scenario cool Ragnarok I am there again and now can download ds own game follow me dong on twitter albert kocakz aaaaaa when iya I can Rp 10 000 again no consent must be concise bi first new konsen should be USD 10 000 aaaaa also bleak can not consent gara2 Sodara masi baby Ragnarok already far in the smear each bABY less acidic hikz Rp 10 000 aaaaa suffering has been started already want kerjain bi there were four infants grrrrrrrrrr every Saturday came three baby again eh Who ever play ASG if got sick how sweet salty sour sour Ancol I forgot to enter at 7 30 grrrr I even at 6 30 the entry aaa Aa en to play BF from on to MAG is just liatin cici bli bli beha stuff anymore cacad sit sma mima ag exciting even though ag move old friends again in Bandung many strange events so confused me Dragon 3D cool out of profit not to watch hachiko plizz dong so go to bandung or rafting ouch plizz Bin PLKJ mandarin JTN and B Ing complete all no red plizzzzz aaaaaa crazy my grades ugly all do not grade my brother why this MID mANDARIN should HARD why Ngeselin not lerned I Grrrrr GOD GIVE mE MIRACLE aaa CF Laptop CF laptop CF laptop CF laptop laptop when DIBELIIN who yau use LAPTOP cici I can make play CF when LAPTOPnya DESTROY ancol CF really nice so want to play again blajar TIKOM not yes mlz also blajar RELIGION also the cin on last day to freedom hari akhir2 mid enak Dikasi 2 days for day 1 day make relax one more day later sks tae tae tae pkn pk pkn pkn pkn very hard God give me miracle tu my mandarin test aaaa mandarin sadis Her this i am this month its bad month i know something but blom surely that nyakitin my heart i never get rich like this before i was patient enough when i was so patient i lost so angry yesterday mampi what iya no core kok perverted yes diary confused contents AAAA little big soldier pertemanya funny but ultimately earned is not funny but it makes people weep loss not watch percy jackson kwkwwkwkwkw I had fismat heabt once if I had fismat I set paraturannya wkwkkwkwkw ngakank I say pinya fismat wkkwkwkwkwkwkwkkwk LOL great angpao this year more 1M From last year hahahaahaha sleep first yes all have been sleepy this let's eye hold up at 2 o'clock night must sembayang at 12 aghh all write status ah hahahahaah one hour longer must be at 12 o'clock in the evening Novel must every day concise 2 chapters battle why i often help him Appreciate in but he himself did not appreciate my son also leak tetep I appreciate but kok him do not appreciate me yes sissy you I'm not mistaken you salahin say just do not want hostility at Stefanny nastasyah yanetritien and teresa grace pansy you so all salahin to I do not have a brain you earned fool yay could FB on my hp misguided ouch this long homecoming gara2 si the The old banget yay mandarin finish hahahahaha woi anak db 2 kls 7 bahn 20sjarah for ulg bsk material what crazy lightning in my house cool alah resee you are proud of yourself dogs rich pig shameless already know want to play computer dimatiin kompinya dog Amin my english is not red yAY you are babu not me who babu have you say i coward you own pengcut ASBUN do not need so your sister base is not JANTAN LEBAY also senen lot pr males for me stupid not yes yay bsj a pretty good day PR Pkn astray Very hard to find ah not fisikanya somewhat easy but the last number is not careful just should be 0 0015 but I 0 015 unlucky just different zero 1 bad luck no isa les gara2 tutoring finally can english english same teacher Mr Ismet steady owl ink print defects abiz no kluar duty bi how this agh bsk sit with damar again bored me why not dipindahin sial bu surta rese Mantap today skull just a little blew yah Today's school luckily yah today sekilah Finally can nanganin through out bond wkkwwwkwkwkwkw Ooh really nyampe villanya wear bli mochi cake all for friends only wkwkwkwkw agh computer again in sefis can not play facebook from computer Merry Christmas all my cici cock rese i nungguin him Performances natal sister rese it seems like old Grrrrr take away rapot not afraid of the sad but mlz nunggunya already long agh aaaaa want to join LDK osis but should not be osisi agh I like the same again bzt jln2 oh puh religious hard really have mlz blajar again mlz blajar History and bio from print ouch today ilum ah mlz finally finished png task also has made 2 more times the first one is almost finished eh Dead blom lights in save again brash wado not bring the achievement card made for the task again mlz ah rese finally RED JOKER and BLACK ACE finished black ace yesterday redaksi joker today kwkjwkwkwkwk NI MAKE TMEN W DOANK mlz blajar jtn agh not ngafal for OR agi severe Agh confused want bli wii or laptop suggestion dong agh rain tae again on the shuttle rich in kapa seles netes netes enter the car agh ah kangen main geta so geek again this agh know not michael dwitama alias dede likes who happy happy halloween all woi who come To obake delicious can play me is gone 10 000 no longer play dogs tu queue crazy fun was brantem guy wlkwkwkwkwk crazy old bang on the bus blom get to school again in this theater pingin cepet study tour so wake up at 4 at last finally report raport my raport Lost or kebawa who has got me my love bsk dong skull again malez can finally be free even though 1 day agh 5 october day that sucks bad luck gara mid sial Class again free free again in free class well again school lame ah ma hitsugaya ouch crazy stress i gara want mid fitting holiday like this in order blajar luck ah who is jah zodiac i kluar kwkwkwkwkwk wkwkkwkwkwk can not if not god iya lucky ahhhh 6 days Again school males mid word who i support this hp whether this quiz is right wkwkwkwkkwk i dont think so or so nyampe jakarta again in crazy bandung eating at the top of the name of the resto anchor expensive very cute sad ah i same room sodara same child baby sleep luck my ds dipinjem Continue if batrenya out gg believe hard is villanya is good but hot cool again at the peak wkkwkwkwk again this free in class again play the main devil text pkn only 4 minutes at least 10 minutes more would make any invitation must come again lame yah not fit agh ulg Ingris her this cacad males bsk a lot of exciting duties again dirumahc GE again this school lesson english teacher again kluar tae class again play geta masa gemp A make people lose tae cacad already her mat 2 times kok can ya wah muzizat surely this boong ouch dizzy work BI BIES bangety told to mading again have rapot bad value all dimarahin ah capeeeeee already mading blom finished pairs day selkah cacad banget cape lah been to school Shame maluin par</t>
+  </si>
+  <si>
+    <t>She Back sick who is sleeping Who is this student is VERY SPIRIT learning Chemistry Eka Teguh D'SilverLance Acai Chandra Richie Ryan DjBilly Gautama this movie Infinity Infinity AldiFaiz This is my WeChat QR code Scan it and chat with me Just download WeChat at is our WeChat QR code Scan it and chat with me Just download WeChat at Albertus Alexander Cape not because nambang because shout Albertus Alexander Winston Marco Sofian Winardi Jonathan first school First day of school Tuh KC entrance She Love me Wait 5 seconds because image number Is not Nobody Got Time for That Tuh KC Results from last Friday Denger News Entering the long holiday My school tomorrow Oh god why First Day on the internet kid just the same as readyboost rape from someone Ry Hariman Sugara kyaaaaaaaaaa Wkwkk Hariman Sugara proud of himself cool cuyy Hariman Sugara crazy chef ken LOLOLOLOLOLOL PON Have not started the roof of the field Tennis Udah collapsed LOL meme jackie chan Character of old maids Kalo talk ti Can not stop up in scatter confident if selling a facebook account or just a trap Jackson I just ngucapin Happy 2nd Birthday LivingSocial Indonesia and can chance for winning iPod Nano iPad 3 Cool oath Packing Depart Find Vaastu mu won The new iPad is money laugh Basic crazy people laugh just like playing the tire looks dak powerful times Woohoo Gue managed Check In and add score Want to dapetin Toshiba New Satellite M840 Rp 8 million worth only Rp 1 million Antri just here Dead dog lights annoying message ckckckck Nothing Different skipper Same Just like IDM speednya Stress if there is no pulse is still another world excessively grass alone in zoom can not sleep open facebook laughing Who character would you be in the Avengers Find it out at Indonesian Life Roleplay 0 3e Address 210 247 242 83 7777 Players 25 75 Ping 55 Mode IL RP V3 99 Updated Map ILRP MAP He's The lord Fucking cool Oh My god Me Gusta He's Not A Gay D</t>
+  </si>
+  <si>
+    <t>Y test Y no alazka miami any so p Good is best Good let go best 21 Duncan Y ngung wakuncarOOO wakuncarOOwakuncar OOOOO ALAYTT Makasih yes all Enjoy the last day of the SSG 69 TH holiday The sniper game of Thailand Type A question right here Enter your text here Fire mode on slow download idm sori instead of direct promotion to TKP on PB Rain wind freezing Practice makes perfect Earthquake is completed also skk Ooo download time Funatastic Two Birds what's on your mind Running in circle Hooam facebook chat less accurate work at the time of bedtime sleep eat computer eat again sleep again denger song do not forget solat Abs fasting month kok lapel solely yeah holiday bored go school males apologize inner born a few hours to victory day jakarta ajib already What's on your mind Exactly short dense Heat bung Bentar again Ajib holiday is true Coming Clean Earth pali Ng nice waiting for breaking fast while drinking the best mixed ice waiting for breaking fast while drinking ice mixed cool up awake sleep facebook chat kok often error O o type my question right here I'd like to make it believe That planet earth turns slowly It's hard to Dear that I'd rather stay awake when I'm asleep Cuz everything is never as it seems We must be naked and really clean Download bntar again finish dead computer Fate awaits breaking fast on the internet Type a question right here fasting many trials The heaviest compositor of yahoo Msn Google search Engine ane just GOOGLE Little wonders Thinking forward soon fast fasting hhe Waduh ane kira bsk holiday Our lives are made in these small hours these little wonders these twists turns of fate time falls away but these small hours still Gerah uy Merdeka 15 40 Wake up sleep Vulnerable Straight body Yeah is basket time One word Optimist 'The season of flu struck ESMOSI Slow but sure O o Pag I directly denger sister fight Wkwkwk Jakarta hot Yesterday is history tomorrow is mystery but today is a gift Yesterday is history tomorrow is a new day Mbah surip goodbye Tak gendong Ngerjain pr bhs arab O o Glides to jakarta In bandung Capek Reach Buset cri hanger clothes question mark is very difficult because ane also wrong talk say it key ring shape question mark Pantes no O o From First to Last Out of the dark terbitlah debt O o I lop you pul O o Ask why I lop you pul Cool dong light's theme 3 Greetings super Entering a complicated day tomorrow to go to school O o Pengen cepet plng I buueetee he Ojan alhamdulliah Ehb finished bk ehb good luck well yah lost again wah facebook I can send an obscure sentence impatient with transformers 2 more holidays Uuooo unlucky holiday lm bosen joegaa duty lot of dehhh i want to shout ALIIIII Udh not sbr met him no groggy ngapa2in</t>
+  </si>
+  <si>
+    <t>Owiss eating bottle dusty shard</t>
+  </si>
+  <si>
+    <t>In putrijaniviani Tesya The results of your temperament analysis is like below You are a serious type towards your friends also very care how the views of people around you So you easily feel sad because of little things and sometimes can be stored long in the heart and can not let it When you are angry often reluctant to hurt people often take other small things that are not concerned to blame others Although you mean good but others do not appreciate your kindness even say you are childless immature Suggestions People have the right to anger not anger does not mean you Good-hearted or a success On the one hand want to hold back on the side one lose control will only make you look cynical Anger is also one way to express yourself Tesya Analyze your financial concept is as follows For people who choose the middle fish stomach including shoppers when earned a salary month They are very popular as big buyers when there is a sale in department stores especially on food and clothes provided they like would not hesitate to spend their money then they are often entangled debt Tesya Results of your logic ability analysis as below you choose Number 4 Car driver In front of number 4 has seen he will stop Moreover the number 4 will be called stopped by the number 1 2 because the number 1 2 looked at him so good alright Congratulations you wrong guess I am lucky to have a friends like you friends Trip to belitung XII IA 3 With B'6 at prom night Prom Night SMA Santo Yosef 2015 Prom night 2015 The story just want to go mkn Ehh hbs mkn even to pantaii Serasa again in private beach Ga no person soalnya Wkakakak Tomorrow UN Pink B'6 Sinmung kadonyaa Luvv youu gaiiss Paraii Swim in Aston Always be friends forever Nal's bday party 25 My cutie niece New hair New hair My cute dogie black vie We can stay fore Ver young Full to the max Wish a miracle tomorrow Fighting GBM When when tired of learning Akyuu funny beudds Fans dephii celalluee her cretin polepell muachhh We call us LTC You're not my FUCKING friend Thanks friends B'7 nd my bestie Dessy Ling kesiah bella Aldo atung Dhanesa Prisilia My cute nephew B'7 crazy club studyhard test tomorrow history mandarin WML Mading mandarin Instaa TesyaFebbyL Study hard for bio Thanks mom Tasks numpukk tepukjidat Nothing to doo Lalalalalalaaa Apparently the world is narrow yahh Sick Welcome XI IPA 2 SOS Shoes o you ' Ve gotta get up and try Tomorrow's last day in sabang 'So sedihh Babii fangin tuu okk Throwing a sponge again da uma kuu Ka think we are home tu what Gak pnya otak mang Ortu brother dcd ngjar kakak e Bangsat mang kakak too Fuck Bye XB I will love Nd miss the moment with you friend Thanks for evrything 'Welcomee XI IPA Biology pasrah B indo original ngarang Ntah what a result tomorrow Hahahahh Let it flow alone First day B english Mtk OR Wish me luck Dwea Goodbye Dwean Good yes there So a good dog We love you Hey loo Behind my dog ​​Don can not be so shy sich loo If you want a dog do not buy donk do not stop people Shit Flu melandaa Class party Makann Nge ' Discoo Hahahahh Nothing to do Rainy night D Economy Everything on stress Child XB on crazy oii Org again UTS even ngechat in group Ahahahh Lucuu Biology mandarin high stress I wish I could do the best today Materials Geo bnyak bnerr Bljr just new Blng belajr religion Blm memorized chemistry formula Aduhh High School Saint Joseph Senior High School Happy Brithday Saint Joseph Senior High School 50th Wechat line nd whatsup ID Tesya Cenn Still want tidurr Hoamm Holiday effects Hahahh D 3 Smue goods lost Gatau kmnaaa Ringemm Bntar agc killed aa D aa DD Geo like sosio Ohh noo Chocolate betambun Cmne let ah Kek melarr kuu nee Hahahh Thank's her chocolate friend D Happy chocolate day overcast Males wake up o Gong xi fa chai Happy chi Nese year Yeeyy Capek Smua on stress Hahahh s Galau because physics Biologyi Hahahh Lo think itu lucuu Gag there is the slightest bit lucuu Fuck Be strong D Back to school Last day Miracle D Pasrahh B English Physics Wish some miracle Pray for physics and history tomorow UAS in In front of this Study Hard Rasa muncull againi Hell Ngpe sich ikak ngte ku d'rear Mang what wrong kuu Only gara msalah spele g soi cmnii complic a a Kuu dc ngrtii what ade d'otak ikak too what g always me that slah a Pening kuu Cmne care a clear like ikak Mn ikak g agc cmtuu like kuu Not walking according to plan nyesek Learning sambill in accompanied by KITKAT OO c in the park Lintass alamm Make the d sna HBD yaa D Moga pnjng shat age always nd more suksess GBU Sanyo's expoo</t>
+  </si>
+  <si>
+    <t>Working not about money but about whether or not it is good to do the job When he does not know people well he will be surprised when the person shows his true self The thing that makes humans develop is the dissatisfaction of something positive example dissatisfied with technology and try to develop it Again with this humans continue to grow more because they want a new one continues Yuli rich child lost wkwkwk a game is when seorg create creations masing2 hahhah Org successful people who can think fore ANDIKA Small cute gedenya cute cool again wkwkwk mudah2an this incident does not happen again yesterday gara2 I am a nightmare it oh yes it's like to play the time Must add the champion from now to win Yp forgiveness today there are many numbers that I do not know my sms Beautiful dreams wkwkwk Oh my hand my hand turns out you do not change still the same as the first hahhah Gw just ordinary people Hahhah my nyesel sweet taste t Mixed with sweet taste lost from bitterness hahhah Hope the past incident does not repeat hahhah May be the best tomorrow win wkwkwk Gk much hope What is happening will happen again hahhah Regret my hardest when I make you angry Klo diinget2 seneng also yh Apes gara2 Yesterday keinget past Just can hope hahaha Gw just realized my movement faster than ever Am I better than the first From the birth of the world to the end of the hereafter open the way he heard the call throw yourself in the destiny and submit yourself to all Gara2 forget in the save until now Not yet maen2 hahhah nothing impossible p Good luck relaxing diranjang while playing wkWkwk Gosh forget in save Yei finally What miribnya Original I was curious Tumben I can stay up wkwkwkwk Ko today I can not sleep yh in Renungi kata2 saya Hahhah This incident will be my experience The most I remember hahhah Gw nyesel why I bi Sa so stupid Ah my shit dumb emank klau alone I can control the time surely all will not happen hahhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhh Sad yh Jdi lazy sorry What if I could change for the better wkwkwkwk There is a monkey with the same elephant WKAKAKAK happy memories hahhah want to change but difficult hahhah Finally ulum finished hahhah Pengen as before but can not hahhah Today would jogging not yh in Ah rese Friday is not a holiday Wkwkwk Gw and yuli My face bleak future wkwkwk Want to cepet2 college wkwkwk Wkwkwkwk Gw is a human being Hahhah buy basketball shoes again i need a hoorish honesty from you hahhah Gw need honesty not lie hahhah Try it I can repeat time hahhah Wkwkwk masa Then oh mop mat wkwkwk my photo is still small p accept fate just deh haha ??klo i can set the time I change now so the date 21 hahhah Mending open facebook wkwkwk Tranquility and loneliness You and I p Buset play game monternya call friends merely so not finished2 if finished can expnya rpa is crazy dikamar rich in kutup north Nyolot wrong not nyolot salah baek salah not baek salah Apasi mwnya wkwkwk Bsk ko not holiday wkwkwk die Rusuh Oops feet not heal2 Wkwkwk turns out I am also useful wkwkwk Njis movie homo wkwkwk Bosen Sial it was already fabricated by 3 people it Ujan stop donk Udh lma do not play dota so want to play again z contrived sttS pke Pp lma deh wkwkwk this person one bt again Gw will be patient hehheh Oon also garbage 6 letters instead of 6 words wkwkwk why my life is rich like this Son smp trinity there who want to go to school Gw so confused there is a say there is a holiday bilng right holiday What enter the day Monday Gila my stay doank who has not wkwkwk want to watch but lazy nyetel tv wkwkwk aduh mau bgn jam 4 even bgn jam 1 Apes2 me Waiting for one piece movie from 2 o'clock it started the hour segini zzz chaotic Gw willing bgn jam segini just for watching wkwkwkwk Jam 3 it turns out there is a cartoon pesky very wwkwkwkw seneng also not possible da who care ma you hahhah Apes2 I play cross fire dikatain ngecheat just gara2 Ngekill merely emank basically I jgo want diapain wkwkwkwk Owe disappointed ma my comp score can only 90 dua2nya xl severe zzz Wew smsnya new to send Gw often fantasies but the hayalan it never materialized even though I have tried hehheh Diajakin but ditinggalin Nina bobo if not bobo in Bite me wkwkwkk Short fat idup lagi wkwkwk Shit I have cape2 to school his teacher not da rese banget Today sparing is tired of losing again apes2 just ber 6 again Si albert again pke body I made it through zzzz Easy to win later Life is emank all wrong yh if Talking wrong do not talk wrong wkwkwk Ccd banget one team that so just my zzz Shit i dikacangin david unlucky dota 5 times Win only 4 kli wkkwkwkw Cacad Senen holiday senengnya hehheh today the exercise for the web kirain exciting twnya bsn Yes Thursday is not so replicate bio kan holiday wkwkwk pengen cepet2 dated 3 wkwkwk Gw confused me not pke package sms but ko pulse i live 108 can still sms Why is it from learning better online wkwkwk Malez learn Space 1 akn to be destroyed space wkwkwk Bio iseng Today I am happy really hehheh Iseng fad idly wkwkwk my dream just one pedicure and I believe my dream akn be real but ko dream it never so The reality Tdi repeat mat ngasal all wkwkwk can rpa kh Ah ko people yh already lma not met me tell me me skinny not rich first fat gajah nge dunk wkwkwk Ko after i know him my job smsan mlu wkwkwk Knp yh da who know no why Start this hri Start bljr serious again deh huh ah 4 today is my shit merely zzz Strange today Seneng intervene pain Bahagianya hehheh Time to stay up Bsk mlz school lgian not Da pljran bsk why Yes ps my pleasure to meet wkwkwk added bonus can be my basketball that was once but deflated the huh wkwkwk Gw cynk really ma he I memank the perfect human and never wrong wkwkwk Yeh senin holiday My legs really sick tired huh must tdur This time zzz CAMPUS BROTHERS HEHHEH Cpe zzz Udh home cool Zzz cold attack me This kli should be 100 I may 93 again if today I am in love choice want hp or basketball I akn choose basketball so I can practice myself so I can compete Ability bejo and berto Gw lose play wkwkwk why big ujannya whether gara2 I often throw away my kh waste because I am so rich if I have to apologize wkwkwk weather angry with me wkwkwk Gw now basketball intentions I have to practice every day MUST wkwkwk Tomorrow exkul I akn tortured his teacher wkwkwk Adu sertes i ngerjaiin physics pr 25 numbers Ah first repeat not 100 even 93 ah no exciting just a little bit Zzz Ah it's my value not 100 gara2 forget a little zzz unlucky there who has not memorized my isa can 100 deh zzz Huh fortunately he is not aware wkwkwk Hahhah my feet calluses all Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzz Zzzz Drowsy tdur but a lot of obstacles huh ouch was tdur now sleepy again huh There is no one who really likes seseorg not from looks and treasure wkwkw Gw feel guilty gara2 was confirm really serious expensive bio wkwwkwkwk not akn I confirm A lifetime if I do not remove it again wwkwkwkw confirm bio expensive really serious oath wkwkwkwwkwkwkkwkwkwkkwkw canfirm bio expensive banget wkwkwk confrim bio mahal Before januari I must already champion basketball wkwlwk mandatory</t>
+  </si>
+  <si>
+    <t>Limited Edition Interior Exterior Very Detail Price by PM Kloter today is just 45k Details of rubber tires Diecast SOLD OUT Thankyou Tant and Om merss Regards Diecaster Apparently audi r8 toh om Enzo Faris Abidzar R Cahyo Adi N but it's also ok hihihi steady FS just deh there 2 pcs mint in box Price by pm iya let familiar Guaranteed cheap merry Initially just want 1 eh meet 4 Take 3 just deh Stay hunt red pepper pillow Diecast SOLD OUT Thankyou Tant and Om merss Greetings Diecaster Finish kelar temperature temperature Enzo Faris Abidzar Ferdian Aditya Pratama And decal om Andry Wisnu thank you lho om2 Though not perfect yet satisfy first repaint first decaling Diecast SOLD OUT Thankyou Tant and Om merss Regards Diecaster Pulang2 ginian welcome gratian thank you om2 there Gadapet hw pretty lah is this In lus want to take the tire fit pas behind shock Kok ban ny this kayak ngeng grip yak Diecast SOLD OUT Thankyou Tant and Om merss Regards Diecaster Lego hw Diecast SOLD OUT Thankyou Tant and Om Merss Greetings Diecaster Tan Omers who sell decals bwt detailing hw who iya Hmm Landed smoothly om thank you om Enzo Faris Abidzar for his mas Masan While Mas Batangan is too mainstream Contains Diecast HW wrapped in Chrome Chrome Monggo if anyone want nambahin Kolpri yah Not For Sale Diecast SOLD OUT Thankyou Tant and Om merss Greeting Diecaster WANTED Want To Buy In Blister or Loose is printed on each photo Who wants to be released may PM me Good price transport Pictures taken from G gle Thanks Regards Diecaster Fs 17pcs take all rp SOLD Ex fare Send from jakarta 4pcs top right reblister Diecast SOLD OUT Thankyou Tant and Om merss Regards Diecaster Welcome to the little family Diecast SOLD OUT Thankyou Tant and Om merss Regards Diecaster Hmmm Diecast SOLD OUT Thankyou Tant and Om merss Regards Diecaster Diecast SOLD OUT Thankyou Tant and Om Merss Regards Diecaster Diecast SOLD OUT Thankyou Tant and Om merss Regards Diecaster Aunt om ers who again auction fnf jada this tolo Ng in the tag in yes Thankyou Sapa know anyone who want to be removed Who want to adoption monggo docked Moris at 35k Lancer at 40k Ex postage from jakarta Banjirrr Want To Want To Buy In Blister or Loose listed on each photo Who has to be released may PM me The price is suitable for transport Image taken from G gle Thanks Greeting Diecaster With H2 garage thank you yes that already ngucapin Owh yeahh Dragon city birthday this new greget thank you all New follow-up FIND THE PRIZE this How to play very easy live temuin only gift there where direct become property We deh Come on follow-up live just click the link below there alfian ah last day ehb help Singapure steady Showroom bentley retreat cape Final tense pin bb ku 2626DE34 Ol at home monkey horee ball soccer ball fire clouds thank you for all my friends GBU You too D phantomm PINATA hiddeni snow bird wow hidenni octo hidenni monkey chicken Audi zero D 1 1 2 hrs on car trasa bored with HP dead jam again costum Phoenix google crome lage heng cape sister wear mozilla again slow think hiddeni fruit laugh ahahahahhaha fsdfsdfsf horayyy Oh Nella 'Tsukiyomi i miss your face your voice why not move to samaria again there are many memories steven robin ahaaa laughing style hideni insects mad fragie thank you buwat Help space rocket me D weww wew kgjls BOTTLE GW BROKEN SIAL hahahaha</t>
+  </si>
+  <si>
+    <t>Oi 9 i9 O Steady Halo everything First Videos Fabtatoes is so this May be checked yes Fabers Challenge FabTatoes Do not forget subscribe and share Sell tickets SMTOWN INA Interests HOAM Today so not at 10 am Hack The Ghost Mode 'til U Get Banned Lectures can cause Sleepy home night strez and end crazy na Interned me again lag brat so gx can OL CF TT CF again maintenance cape in waiting again jlan2 to peak huh pnaz bnget Harve's pet '' Wolly '' is da bestzZ 4ever 'n ever Ok Harve's Pet is Da best 4ever 'n ever addduuuuhhh die light teruzzz me so mlzzz Again mlz niccchhhh Busssseeetttt Ujan na gede buaaanggeeet g again go to marriage ampe can not plng in open space sicch asssyyikkk just red 1 9 na there are 6 and 100 na atu asssyyikkk just red 1 9 na there are 6 and 100 na atu P'ling malz if dead light huhh in khirnya already ammppe jooggjaa asyikkkk let's go ayo</t>
+  </si>
+  <si>
+    <t>SHOPDECA MARKET RESEARCH Hello everyone Please help and time friends who have been shopping online to fill out a brief questionnaire below to help finalize my final assignment about E Commerce Shopdeca Thank you very much at HASHCLOTHID IT'S LAST DAY OF 02 PRE ORDER READY STOCK 03 April '17 Details Material Soft Cotton 30s Color Colorful Size S XL NORMAL Price Rp 80 000 pcs When I got the motivation to learn and to improve myself I am not confident enough but I am eager to try Correct me if I am wrong Visit and read more moons poetry blogspot Com moonspoetry And the light that you left it helps me moonspoetry moonspoetry Disney feels Tinker bell wohoooooo HAPPENING NOW It was WorldPoetryDay yesterday so today I like to share my first ever and my favorite poetry which was written three years ago Visit and read more moons poetry blogspot com moonspoetry minioo Oon Visit and read more moons poetry blogspot com moonspoetry Today last year happywhiteay Happy white day Visit and read more moons poetry blogspot com moonspoetry Help me to fill this questionnaire about Indonesian E Commerce for my final project God Bless Visit and read more moons poetry blogspot com Moonspoetry H 4 Happy IntenationalWomensDay Visit and read more moons poetry blogspot com moonspoetry I can not The world seems to belong to the sixth Happy sunday Visit and read more moons poetry blogspot com moonspoetry Ig in hashclothid Line Mr President samyangchallenge again at two o'clock in the morning with full equipment full video is on Youtube know i need u but i want to stay with you until we're gray and old visit and read more moons poetry blogspot com moonspoetry Peace visit and read more moons poetry blogspot com moonspoetry goals Cause what if I never loveeeee again visit And read more moons poetry blogspot com moonspoetry Happy Valentine's Day visit and read more m Oons poetry blogspot com moonspoetry and YOU You leave me breathless you're everything good in my life repost visit and read more moons poetry blogspot com moonspoetry H 1 year CNY can not wait CAN NOT WAIT It's as if my heart knows you are the missing piece Repost visit and read more moons poetry blogspot com moonspoetry International Marketing 2017 moonspoetry moonspoetry Oh these times are hard they Are making us crazy do not give up on me baby repost visit and read more moons poetry blogspot com moonspoetry Things to do when you are already 'lengser' It's gotta be youuu uu uuu Visit and read more moons poetry blogspot com moonspoetry It is been A while since I have so much fun like today Let me go home Oh I miss you you know Visit and read more moons poetry blogspot com web version might be better moonspoetry Joel Adams Visit and read more Read more moons poetry blogspot com web version may be better moonspoetry Pekanbaru Every part of my life that is fated to cross the same path with you I hope you will learn more I will continue to watch them anyway Happy holiday Visit and read more moons poetry blogspot com web version may be better moonspoetry Is it me or her that you see through my eyes Visit and read more moons poetry blogspot com web version might be better moonspoetry Tell me How to get this job The most intense drama I've ever watched so far Following on satori planner on instagram Pekanbaru and Jakarta based wedding planner Visit and read more moons poetry blogspot com web site might be better moonspoetry Just updated my blogspot Visit and read more Moons poetry blogspot com web version may be better moonspoetry I always wish that it was all enough Because you are eternally enough for me Moon Poetry see y Our true colors Siblings throwback I could never thank 2016 enough for shaping me into a better person who is the number more feeling so terrified about opening the door to the world I have been keeping my own world to myself Well I like to observe people I feel what Others feel I absorb surrounding people 's emotions but I never told them I did not socialize a lot of friends This year I learn a lot I learn to express my feelings instead of bottling them up I'm happy I'm so happy that I love my friends Started to listen to listen to my stories laughed smiled cared It feels so amazing Well I did not love it it was all easy through the whole year What I mean is this year I really synchronize the black and the white melody of this Life And that is all thanks to people who do not give up on me number matter how difficult I am to deal with Thank you everyone HAPPY NEW YEAR Visit and read more moons poetry blogspot com moonspoetry Japanese at its best 2 07 and up A day a Tommy Tandera LOL look at someone's phone and be like so bright you could die or laptop 2017 is coming soon and well I have been writing since 2009 Wow I still can not believe that I've made it this much I used to write fiction stories instead of poetry like I do now There is a lot of supportive readers and comments ups and downs and still I have a lot of fun at that Time It's Still One More Chance 2010 Chance 2010 short story about someone feel regret I will found that right place Wish everyone a blissful new year Visit and read more moons poetry blogspot com moonspoetry And maybe just maybe it is all enough So before we Move on to 2017 I would like to clarify something My initial moon is not what you think it is It's not a moon that shines in the night sky It's a childish story but ok back then when I was 14 I liked Korea so much and Just like the other fans I got a korean name It appears to be Moonri I have started to write and then I used the first name of my korean name as my initial Moon So yeah that is all I am not getting emotional or Sentimental when it is full moon or else I am not getting the inspiration by watching the moon up there No I am not LOL Inspiration to come from anywhere and also the number it is not based on the true story of mine laugh okay thank you for reading Visit And read more moons poet Ry blogspot com moonspoetry You deserve to be loved repost It is almost the end of the year and people need to believe how blessed they are to watch the world spinning until today</t>
+  </si>
+  <si>
+    <t>WTB shaman new so in PS or Gold gear ijo no what what is important lvl 80 the intention WM dalem my nick game Ducbeuregard amp horde WTB shaman new so in PS or gold gear ijo no what what is important lvl 80 wm the intention of Anjer neh IDGS Get sunami or what the WoW gloomy play amad lag her play main yah you njng speedy anjeng cacaddddddddddd bankrupt just you 'Last world when i leave singapore' 'mencretttttt ENE NEW PALLY RETRIBUTION NAME WTS char pally horde lvl 80 eq complete already ashen verdict reputation Interest post me WoW AMPM This is preposterous Am I to assault the undead with nothing but sticks and harsh language Kael'thas Log in server down LOL FOR THE HORDEEEEE Ricky 2 new years new dog money issue in burn study from mistake how ever I still love Indonesia dog stupid word GANYANG GANYANG GALYANG MALAYSIA GANYANG MALAYSHIT NOW ALSO All under control gloomy Indonesia WHO WANTS IN TAG TAG IN OWN THAT IS GK MAU IN TAG PLEASE IN REMOVE Bahlul Just my joint Ri doank who enter the school Bangs TTTTT who cut hair taek Stresssssssssss Hey Baby fun as gene ae every day bahlul alma mater missed in ancol One Last Drink Please anjrot computer has a lot of virus a terpacasa disk cleaner child X infinite if no teacher surem a I need a Hitman for a special job I need pro Executor now anjrot package wrong address a Your silence is slowly killing me see the great testimony yoo yes god pray my second orantua me so that they survived to the purpose in running the pilgrimage and lancarkan is the process of their pilgrimage and give ease In the pilgrimage and make both my parents a pilgrim yag mabrur amin hufh fate HP lost a maid neh who took from his grief caught the surem helper kampret taek gene neh speedy slow Sunday thinking crazy play PB pink cmn 2 surem school that does not need important clever Pinter make money Pride Is a Weapon Adolf Hitler WORK IT OUT aaaaaaaaaaaaaa play the L4D 2 main expert Her in the 3rd gloomy kunti I SWEAR BY GOD THIS SACRED OATH THAT I SHALL RENDER UNCONDITIONAL OBEDIENCE TO Adolf Hitler F hrer OF THE GERMAN REICH AND PEOPLE SUPREME COMPANY OF THE ARMED FORCES AND THAT I SHALL AT ALL TIMES BE READY AS A BRAVE SOLDIER TO GIVE MY LIFE FOR THIS OUTH PROMISE NAZI SOLDIER pretty dreary ms crystal Can anybody provide me with a decent challenge SWT Alaysia looking for gara just look for gara i call nazi from moon bwt nge nuke you hohohohoh Important taek likes plin plan if confused is what is received GAN DATE 27 AUGUST BEEN BECAUSE THERE ARE 2 MONTHS NOT THE 2 MONTHS THAT IS 2 GANS BUT THE ONLY IS THE PLANET MARS WHILE WHEN PLANET MARS REACH OF DISTANCE 34 65 million miles of earth Do not forget to see yes skipper On the 27th of August at 12 30 am IST Hope in Indonesia to appear Skipper owl plin plan already hadoh so can not wait for 2011 want to watch Iron Sky so fun alamater so 3 weeks will be more handsome i make alamater najesss film the Last Airbender THE BLOM ugly JGN PLEASE WATCH IN THE DAY BULE OH MY GOD WATCH THE MORE ORRRRRRRRRRRRRRAAAAAAAAAAANGGGGGGGGGGG GIIIIIIIIILLLLLLLLLLLAAAAAAAAAAAAAAAAA hohohoho Wasem snorkling because my skin was so dark gloomy Friday going diving again where I was less able to swim in the sea Drowned already bruakakakakaka Weleh Gw Japanese Language Learning laugh Tarohan acid again equal Kevin Germany will repeat his victory in his own country World Cup 2014 will be held at Bayern Munich Derrrr panzerrrr team will repeat his victory at Bayern Munich awkakwkwa mantabb gann Germany will be World Cup Champion 2010 J CHAR 56 tacky AAAAAAAAAAURAMLATOZZZZZ CHAR NYANGKUTTT ea BELS AMA CORA ALLY KGK REDHO GW ALLY AMA NATIONS CEBOL SWT SHOULD HAVE A GENERANT ATTACK THAT IS ACC MAINLY HIS STRUCTER IS IS HAVEL ISRAEL AT HIS PLACE ASEK BELS AMA ACC BRAND ALLY AKWKA IN ELAN DAH KYK AKA DOG CATCH akwakwka WEEEE DUPE TEMBUS Ich bin Single Ich Freue mich sehr YESS AKHIRNY A THERE RAZIA MAMPUS KAU CHEATER CORA WILL RAIN AGAIN IN LYRA Dieses Gef hl begann wieder zu kommen SELL CHAR PB POINT BLANK DEVICE DIAMOND 2 KUTIP 2 KD 64 HS 29 TITLE COMPLETE COMPLETE FULL POINT HUB 081386973980 THX How Lucky Lord If His People Can not Think Mein Kampf huh a tiring day If within a person there is still a sense of shame and fear to do a kind of good guarantees for that person is not going to meet him with a single step of progress Justin Bieber One time Male and female are as two wings a bird If Two wings equally strong then fly the bird up to the top of a height if it broke one of the two wings it can not fly the bird at all Bung Karno defect you dika make scroll kan you I kalahin you cmn make 3 skli doank BELIEVE OR NOT WORLD WAR III WILL HAPPEN IN 2010 YEARS Kahitna will not be replaced german version MAJOR ME MY SMUA FRIENDS IF THERE ARE PLEASED IN MAJOR OF THE HUMAN MAKLUM IT IS NOT FORGETED FROM SIN AND ALSO DOA'IN I UNDER VALUE UN I GOOD IF THERE ARE LESS PLEASE PLEASE TO INFRING ME WASSALAM WAS WE WR WB Many people think Adolf Hitler Menniggal in bunker yes there is In berlin but at the time of investigation bawha body found Russian soldiers are bodies Women under 40 years Many historical observers say that Hitler went to Brazil Argentina South America and surprisingly there are those who think he lives in Indonesia wah angel net is open again in Change his name the same Imanuel net hhe main teruz nig Ein guter Freund ist ein treuer Freund wenn er wei wie ich mich f hle KEEP YOUR PROMISSE BECAUSE YOUR MOUTH IS YOUR TIGER go home rain rainfall deh on the road together Yudha Ardiana ride OJEK HOLIK kwokwowkokw WET all Kwokwwo crazy in my live have a two choice sad or happy and i choice happy sad banget this afternoon i was in throw the same bottle same book seseor Ang in my class huhuhu just for trivial things kwokwowk Wedding pla follow-up I believe IN you every day it feels no rain snow LAgu saHabAt From Chagcut ouch no work at my house Happy New Year 2010 I'm sorry if there is any wrong then of that sata Say minal aidzin walfaidzin apologize born and inner Merry Christmass and Happy new year long holiday has arrived let's fill in with meaningful things kwokwokowkkw ea ea ea ea ea ea ea ea ea 1 day before division of ea ea ea ea report Paloma Faith Technicolour Should the Nazis have to There is another to wipe out the Jews LAKNAT In the event the Nazis have massacred 6 million Jews In the hands of Adolf Hitler I m Alone Please Accompany me Tq For my all friend Say meeee Happy B'Day two days to grown up Lee So Jung One Rf Theme Song Waduh UN In advance to the month of March zzzz number coment in my mind Stay united Indonesian Youth for jowo people may know the meaning of LOVE Selamat Hari Idul Fi Tri for those who run it apologize born and inner Slamat Hari idul fitri apologize born and inner Finally Holiday Has Arrived I m Coming Vacation Haus Mendera in the day As this throat is dry It seems no sooner Open fasting hhe 30 DAYS Lebaran HOREEEEEEEEEE 2 Days Again before Fasting Dpo For Who Finds Tel 991 ok Ready for Fasting</t>
+  </si>
+  <si>
+    <t>Instagram triladias xxx follow mention for fllwingback heart my page I will heart you back iya all follow 3 ask and ask FOLLOW who want difollow comment jfb iya follow iya thank you D Farida Taskia Fira laugh see video tia ketawa haha ??D trias iasdi hotmail com add iya Thank you 3 follow friends thankkkyou badly applies cheat it then so do i will be good value Alia Nabila there is not any perfect people so we must know we are not perfect in the eyes of god D bored when I make one looks at looklet There are people who like mine but not long afterwards she's copying my style all the same but only just a different model i want her peace iyaaaaaa i am aware ko but if the problem must be because karma first you often ninggalin me so not because we grudge cumaaaaa It's karma yahh please understand D p jin kazama jon foo D jahahaha 3 Veda Ocvira Maharani Hunnie Anggraeny Arina Tiara Adriana in fact crying is just a useless thing because the wo Rld only briefly why waste time just to cry for a thing better work and worship is more important for the future ngalangin just siiihhh hmm never diceritain what what should i know p who try that for this dibicarain I just do not know if lazy yasudah P cooking cooking with Veda Ocvira Maharani Tiara Adriana hihi although rada destroyed initially but good to make nambah hihhihi dear sister Hunnie Anggraeny Arina not follow hhihihihihi D trias please heart this D yaaa D follow yaaa D Veda Ocvira Maharani hope you like edite an yaaaa value Change attitude change but do not turn into bad 3 god hayo hayo hayooo learn to open open book that class 4 againii yoo SPIRIT YA lalala there website can not bored kan jadinye for Alissa Nur Ahdia wall to wall just yaaa chatnya error Alissa Nur Ahdia Errors only Learn more for TO day he bosen at home yesterday twitter LIMIT online twitter with Anggun Wikanissa Alissa Nur Ahdia Nabil A Zalica online at school LEMOTY p Likes deh same pp gueee Hihi twitter LIMIT gawaaaaatt out PM bawaanya ngantuukkkk o huaaammm si Alia Nabila why try to arrive suddenly so think ehhhh the sleeping abong is funny abiss GEMESS twitter limit Alissa Nur Ahdia chatnya on off really true Not asikk speaking English in school with Alissa Nur Ahdia and Anggun Wikanissa hmm took the rapot ahhh ahhh Dwike Hereka February very strange ckckckck doing the task of IPS huffttt hmmm ipa task must be moved to new computer in print hmmm tired back and forth Nabila Zalica Alissa Nur Ahdia Anggun Wikanissa Again on the househik asikk Udah nyampe in jakartaaa Otw ciwalk bandung Maccet Otw bandung asikkk out playing bultang in GOR back sprain AAAWWW away sleeping morning iya dadahhh chat thinning part II friend who want to chat no need to chat first yes errors so wtw just hmm on there is a Want to chat with me hahaahaha twitter why there should be a limit us so can not write a lot of tweet S wishes in the new year the best in next year my twitter limit GAWAT bored at home yaa internet lemottt midnight watch avatar back home stay at home bi Ina Farlina asssiikkk laaahhh for Anggun Wikanissa happy birthday yaaaa hopefully its age berkahhh yaaaa aminnnn out of ps watch avatar with Alia Nabila Veda Ocvira Maharani Alia Nabila Veda Ocvira Maharani so sebananya want kemanaaa Ears gueeeee sakkkiiitttttt Sumpahhh really painful 'autism berisis autia with Alia Nabila Veda Ocvira Maharani finally can also fotoaaaaa p want to cepet cepet les same Alia 20Nabila Veda Ocvira Maharani ahh want to play but may Not yahhh who has skype comment yaahh Alissa Nur Ahdia Nabila Zalica crepes me so not enakkkk hahahhaa yahhh new photo once same Tiara Adriana Alia Nabila I can not play so on pulanngg later if it is finished our reply photo photo yahh aduuhhh teraktir chicken noodle dong Alia Nabila or Tiara Adriana today again proudly on at Ri own my photo photo nihh nihh nice deh lights have flame but lights flame bell cosk aduuuhhh noisy nihh belnya sound teruuss hhhhhhhhhhh dead lights so did not look looking i was looking at home there was not the snobs pas down it was out there luckily pager closed safely Photo photo with Alia Nabila and Azkal asikk asungk lucky mang Budi Hermawan so busy this deh bored home at home Alia Nabila Veda Ocvira Maharani Tiara Adriana play ayo D ayo ayoo again in sumedang hueee really nice atmosphere want pengebun first ahhh D Yesterday's birthday mom Love sureprise dehh Hheehhee yesterday Monday ngerayain birthday Alia Nabila we ngerayain together Tiara Adriana Veda Ocvira Maharani same mardyah berhu deh fit us out eat me the same veda home fitted back home behind alianya bring pudding hueee seneng yesterday mid night watch ninja assassin really cool Huaaa want to watch more Love Logo from my friends today at home crowded Asikk asikk D yippieeyy tomorrow we pray idul adha yeeehh but ko no one takbir takbir yak again video call Dita Panjul but his voice ccacatt Dita Panjul you ko off dehh want skype but you do not nge answerr huaaa anyone knows how to make skype comment Yahh send photos via bluetooth to laptop ko can not bea sending filed teus nihh ah ahh uploud photo ahh but lemottnyaaa iya allah hhh</t>
+  </si>
+  <si>
+    <t>Want to be cuddled and cherished by everyone because Afif likes everyone I can not wait to watch this anime</t>
+  </si>
+  <si>
+    <t>That moment when you meet your first fan very grateful to be alive i've live for today and you should do it too</t>
+  </si>
+  <si>
+    <t>OMG OMG 3 3 bugil ah h ninja tuna Join RaidCall today and have some fun with your friends doing group activities that go beyond from just simple chats this Includes playing games singing karaoke and much more Download Links www raidcall com Calvin Fernandes Denny Adinugroho Adrian Setyoyudo Adrian Setyoyudo Denny Adinugroho Calvin Fernandes is not genuine z check wut sister hell seoul if want to eat tempe not usa responsibility wah wih Dafuq is a PUK code itisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitis itisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisitisiti I homo Microsoft Word Write letterz and shit yo 'Mobile Uploads thanks for the wishes perfect record time kenceng lolololol affection never part 2 oq never pity never part 2 I f aqi G4G m4 aql gs sm e gs UPL 2947l7207l0l7433l22l20l0l7l7l0l233l1844l2 9 2l13l0 Naek motor True hi fren mau b kep First FPS game on Facebook i love same See more nor this open epbe at mac hotel in See more at See More counter strike my handsome fetgh pijio pijio er rty rty ghghg ghghg ghghg ghghg ghghg ghghg ghghg ghgh ghhhhhh Kgkjn kgkjn ukgk hbjhjnjknkhkj trbank hesoyam Older Posts Problem if you have a restaurant rich hanamasa mnding sdiain live chickens own fried bacok Myself again nge drug panadol A bitch as a wife is an epic fail moreover the bitch does not work and only be able to waste money Ironic every ladies crazy when her daddy's not trying to type in google rainbow google co id continue click im feeling lucky Not trap calm just settle friendly what is english horned iya mercy asd asd asd i want chicken Enrico style devin Enrico style pak yu mahoan same pak mi titig today on writing setatus bed dei thanks for all the wishes SM SH seven homo as seven Homo bsok facebook close not today conference table binatankny discuss pretty weird Tower blocks beuh viktri Random with happy to spend 6 bowl of rice hainam Uuuuu steady Mobile Uploads Ea ea NB DT I was forced DT Wihi rings waduh random points see already name karakterny bai bai friend si Black fly Ugh APAAN happy new year all Bite bites Made with www TotalGraffiti com anyone know sbenerny enr likes who is not Made with www TotalGraffiti com join my p Ack on dogwars my pack on dogwars my pack on dogwars Sirs and Madams I am an up and coming Racer of Pets and I need your help Please help by joining my team I am cute I won dim Someone beat you in tennis match on Tennis Mania Return the Loss to Him play a match now Someone beat you in tennis match on Tennis Mania Return the loss to Him play a match now is playing Tennis with friends is playing Tennis with friends</t>
+  </si>
+  <si>
+    <t>For IT student semicolon only exists at the end of the line of code Elmo Tan Mas is straying away bgtz Flazz card falls in mall 3 years ago just found now Good luck always bu God bless team bin binasian2017 in Binus Kijang Spirit of excerpt Quote in video please in viralkan So there is a help because the length of the former candle Bosen ahok merely collect money to move to the most tolerant city if there is Elmo Tan Elmo Tan mauuuu Elmo Tan you really Elmo Tan vanilla Yaudah if it is nyusahin other times just go alone gausah ngajak So So remember the story Andi Muqsith Ashari who laughs at 12 o'clock in the evening If this is the case if you want to vote to participate in citizenship education from the government and have npwp what might be more objective results Learn from pilkada who just finished many who act without thinking Why is the above should have a npwp because the project Local governments use apbd whose source of funding from p Invite So that not suitable paslon udel make promises and the community can have a sense of ownership for the region where he lived Ibaratnya I pay to stay here work here and I want my place can continue to be developed correctly If tiba2 there beggars come and then casually without thinking and even ask Money or downgrading developments now should not be dong Another example of the director's meeting can only be attended by shareholders Of course they will choose the best to advance his company ordinary employees can not impose must be his choice to be a director But believe me the leader is selected definitely to advance the company so that All employees can still enjoy the results random deletesoon Pilkada is already finished but the brain suddenly unthinkable Later deleted simpen first who knows need later maybe not yet jakarta same level of the capital of other countries back to basic preach results from google quickdraw Shinvanni Theodore My Happy Life Happy 9th Thank you for the treat Bluejack 17 1 Thank you for the treat Bluejack 17 1 Elmo Tan come here D mamam that karma hence do not be subjective in choosing to be hit zonk deh D Udah a year just pesen go pet for pick up ex Elmo Tan learn this Bullet journal or watercolor Both of them cost time and money Any suggestion Shinvanni Theodore Elmo Tan Shinvanni Theodore Pengennn But today is the last and if the meal itself can not be exhausted eargasm kuroko basuki no one wants to give free corgi but I its no place A The right is the database or database 3 3 Elmo Tan you nid dis Friendship is not about who you ve Known the longest It's about who goes into your life I'm here for you and prove it Officially 21 Left to right in alamsyah24 on stefanuscandra on shinvanni theodore at elmotan95 in noelimani at andi Mqa Missing di yenyenagustina by in fransisco antoni Suddenly keinget collection of five books sekawan same trio detective is not complete yet it is better to go back to basic Shinvanni TheodoreAndi Muqsith AshariStefanus Chrismanata CandraNoel ImaniYen Yen Agustina Cool bad Udah kind of storyboard apple Congraduation Shinvanni Theodore S Kom Elmo Tan Shinvanni Theodore Mochammad Alamsyah So i was jokingly said to them do not buy me bucket flower bawain me bucket fried chicken just aaaand THEY DO GIVE ME A BUCKET OF CHICKEN THIS IS WHY I LOOOOVE YOU GUYS SO MUCH at shinvanni theodore at yenyenagustina in andi mqa in Alamsyah24 in noelimani Thank God for Your grace and Your unending love in our lives Thank you for Mr Sonya Rapinta Manalu as a good lecturer and very patient during our thesis work Thank you for the parents who have full support of funds and attention for 3 5 years of college Thank you also for friends Friends all who support us in the busy period of stress thundering thesis Thank you also for the lecturers and all the parties involved in the making of our thesis Thank you partner in thesis Elmo Tan Congraduation Anthony Tantra S Kom pengen s2 but expensive if not an ice cream scholarship deh if So Elmo Tan No matter your action you still gonna die Cool can also be masking wearing this big company name deceit is too good or his company ah i do not waste alias Elmo Tan let me sustenance more friendsday uwoow Mending pay more for the ride garuda hadeh Families are like branches On the tree we grow to different directions from our Yek's Family Hometown Comfort food for the road away This dorayaki is soft and tasty and its contents are not stingy suited for snacking on the journey especially the highway of Sumatra is hard to find its food Variants also taste many So definitely not boredin Current fave Choco Ovamaltine Chocolate Almond Make a child Pekanbaru who want to kepp pig him in celinedorayaki Can deliv out of town also lohh celinedorayaki pkulaper pkusedap pkumeurah kulinerpku pkulezat makanpekanbaru kulinerpekanbaru endorsement Binus square Elmo Tan Shinvanni Theodore Andi Muqsith Ashari Who likes ngespoiler not have common sense what yes Elmo TanFelix Rukanda If anyone wants to buy Course udemy can chat to me yes while already want to exhaust this sale coursenya 10 150k 20 290k If buy more and more can be cheaper Thank you Happy new year Finally we could spend new year eve together FOR THE FIRST TIME Thanks for always being by my side May The new year be a healthy success and prosperos year for us Besties Ew Just a random thought once there is a suggestion on my YouTube page to contribute on my subscribed channel I have not found that button anymore It was my first Time to do a captioning and it's awesome and embarrassing too w especially when you rewind the video over and over again t O make sure that nobody find it weird oo and doing captioning work could help me understand another language too RIP Francis It's been a long time ago not to walk with besties by at elmotan95 Juventia A yearinreview2016 this Udah there google maps or waze alesan you late gara2 jams it invalid banget siblings The man should promise what time can be predicted how the time it is you who can not appreciate other people well yah Win the last important letters pose first Velinda Dwi Puspa Again in the street terbgiang this paragraph God Bless ngungsi Old well yes yes wkwkwm Old well yes wkwkwm Happy Legal age Shinvanni Theodore Hopefully smoothly skrips yaaa Lopelope you so muchhhh Make memories while we can bestfriend birthday Happy birthday daddyyyy 3 years and counting 3 years and counting Happy Mid Autumn Festival Delivery from Indomie house that will not be there in Jakarta taste soto medan Good good Time highschool bestfriends hangout long courtship does not necessarily guarantee the quality of the relationship An laugh From the middle of the night to death lights People who do not know can only ridicule People in power can only demand Wise people just give advice People who experience can only try At least before criticize other people try to position yourself to be that person first The worse still big Udah still Jatoh hmm Street stuck yes natural everyone is easy emotion The problem is how do we ourselves refrain so as not to ignite the emotions of others also Although other drivers are wrong because it makes jams but it is dikkakson enough we will be more wrong if we come out kata2 rough Naturally If dibogem</t>
+  </si>
+  <si>
+    <t>Start playing Rule The Kingdom on Android BI this Sariater swimming pool New plang futsal cape lngsung gnti shirt eh ngliat facebook ada yang ngasi happy bday thnx all who already ngucapin hppy bday finally i open facebook after 3 MONTH not open THNX ALL GOT the JOKES UNREG Aldk BANTUIN in order to be more tolerable after 1 week can be 100 dollars more deh Cape dahhhh Period Kleas w wih hell But yes mngkin hell just because lwan same class 2 but shy crazy Team class w lost 5 3 crazy it class 2 maennya srius Really si is still a score of 3 but it cma gara kick off 2 x equal goals usual Si andi nendang even hand ccd loh in Cascada Everytime we touch Akon Beautiful Stop Aldk Info from kaskuser You must know the power balance bracelet that is currently rampant maraknya sold not It turns out as I have assumed the bracelet is just an ordinary bracelet many people believe when hearing or seeing The power balance bracelet with a magnetic hologram that berkung Si to make your body more strongly and flexibel is just a lie check here Boyz Tokyo Drift Akon Right Now Na Na Na Lemon Demon Ultimate Showdown Black Eyed Peas Where Is The Love Cold With My Mind Cage The Elephant Free Love Shane Harper Dance With Me Mika Everybody's Gonna Love Today Evanesence Bring Me To life Eminem feat Rihanna I Love The Way You Lie Sean Kingston beautiful girl LOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLOLO TOWER UD PNUH TPI TETEP AJ LOST OL D CYBER BOSEN NIH CONNECTION LEMOTTTT BGT HHikz is the latest for all temen2x SBM ANY STRANGERS WELCOME who IS seriously MAE games2x in any FB please see note w have a WRITE HOW DUET VIRTUAL DUED Blah blah blah blah blah I de ck know the link because this way actually FOUND BY INDONESIAN PEOPLE AUTHENTLY w woh until this year until this month until This week until today until this hour till this minute till this moment also BLOM KNOW IS GOOD BY THE PARTY KETI GA GOVERNMENT AND OTHERWISE PARTY PROVIDERS WEBSITE paying party MONEY VIRTUAL THAT EVEN THE PARTY MANAGEMENT OF THE PROVIDER OF THE WEBSITE IS PLEASE CLICK KLO GK MO GPP GK AD VIRUS TROJAN KOK SWEAR TO get money VIRTUAL ALIAS DUIT boongan HOAX FOR KASKUSERZZ CREATE What are you doing AJ OK FOR WHICH READ STATUS GK JLAS DRI GW NEW PLEASE PLEASE NOTE GW RADA LONG LATER KYNYA LATU AFTER LU COPY AND PASTE LINK YG AD GUARANTEED FREE CLOPS FAKE LU BOLEH NGAPAIN AJ DEH SUMPAH AABIEEZZZ MANTAB Ok this way can be free money for you all if you want to buy a kind of currency Game cash Token for NS Playfish cash for game playfish like Pet society and others but I again try this way kira2x I love news slanjutnya 5 mnit again this serious not kidding me I just nemuin this way from the internet if you want to see lgsung 10 Just look at my note On at school diem2x hiihihihihii lucky not to cower teacher IS STILL ON UP TO THE NIGHT ZZZZZZ osi you si si anda osi ka Mu si Anda is and and sq ui hahahahahahaha Who isa read the top bag without melengin great kpala read read grab the head base heng hhhmmmmm idiot deh wkwkwkwk AAAAAA kok my app kluar itself is not the right why of the quote from one of my notes every continent start end with the Same letter in english every bnua begins ending with the same letters in bhasa english stlah hmpir not update2X slama a month finally on too yeah i am real hacked person ip addressnya from US najies my facebook is not there ap2x is listening to Free Loveby Cage The Elephant it's pretty Good is getting bored zzzzzz VV oh so bad this kyknya there nge hack facebook my friend if there is a komen talk yang aneh2x please JGN DILADENIN because akhir2x this facebook i kluar own application so Aldrian you and s ye ye u you o x2 and sip You and your sister 4 s' iqi you sn q snq buset just look at the news 4 schoolgirls SMAN dkeluarkan from school cma gar A2x commented on the security skulnya ck ck ck ck FREE 520 FACEBOOK CREDITS FOR LIMITED TIME ONLY HURRY UP 520 FACEBOOK CREDITS FOR LIMITED TIME ONLY HURRY UP all who have been happy b'day especially family friends BBU all 1 again smoga ci2x ko2x same mami Susy hapy2x Dsana yah titip greetings to call what why while uncle first uncle Ron message smoga all living creatures spirits happy happiness slalu stay in peace hikz kok kasi slamat b'day cma 5 people trmasuk family with school friends iya laen on again busy being anything Hikz manga already kgk bsa again forced to spend time in FB TT News for those of you who read online manga especially manga bleach naruto one piece and other famous old kayak kungfu boy is not going to be able to read manga again because now all manga already exist patent Kgk as before after the survey of 127 websites there is no ONE that allows reading the famous manga and no thanks Let Your friends know that you 've sent a free gift Guys visit my notes dong COMMENT please yeah finally go junior high school also bolt has new son comparison 10 3 sadis very yes yes WOOII once again who do not know tomorrow msuk to school no MOS if not come sukurin not Know guru2xSMP same class for the blom know Thursday 8 7 2010 all those who enter SMP1 will hold MOS at school please come because there will be introduction of teacher introduction of OSIS and introduction of MOS itself please disseminate oiii brother cc2x SMP want to ask dong MOS wear sragam what hold us friend Me if his MOS MOS is Monday monday wedd stay in skull right yah brother cc2x junior please comment PLIssT T Guys who play ninja saga dbawah lv 20 pliss ride lvnya dong stress is not isa passing chunin exam grab the same raport ijazah hri this ktemu temen2x SD Last klinya ampe SMP lumayanlah gobs kompu finally SMP also bored in SD continue ampe 6 years more Let your friends know that you've sent a free gi Ft already lma does not update this status is busy siapin UAN was not so tense UAN kayak other people say pls helpin this bankrupt See that doll over my pet It's not somekind of Cheat 28 03 2010 is sometimes boring yah hahh WOI SMUANYA GW HAVE WEBSITE BGUS NIH www Omongkosong com djamin laugh deh if it is nge LIAT Note may take 2 5 minutes ampe you finished Note2 if you want saya saranin open in the browser laen nyesel if not Note3 better do not click on mouse but hold key enter ke ke tablet loh but hati2x do not ampe skip Note4 do not panic so see your browser kayak get the virus is indeed part of the show Jgn immediately close your browser or later you are LOSS Who created this Web site is my friend His name Victor Wong masi school aka class VI Data maker Age 11 years Employment of elementary school children VI different class he A I B Value Mat almost smua cepe alias one hundred Note woi Victor you do not my mistake yes yes 25 03 2010 bosen this Buat 'T bother me and um well nothing happy Lunar day Gong Xi Fa Cai i ix uo poq 2 iis now playing o you in pi iu you p you s and dn and the number is s on</t>
+  </si>
+  <si>
+    <t>Thanks all Sorry new open FB GBU all v FOR ALL Thanks iya SPECIAL NITA Thanks the other bgs2 vit 1 in even cat but no what what thank you hahahha do not know now What is on your mind What's on your mind what are you character in harry potter My Result HARRY POTTER where are you lottery prize who found a bag belonging to vito will get in exchange a piece of bread and a plate of cwi mi gilaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa if energetic why that stupid far at me wow fear means I JHT so why play yuuuuuuuuuuukkkkkkkkk why ampuuuuuuuuuuun why so squirrels wow because akhirny me Find the right combination in it turns out we pny similarity</t>
+  </si>
+  <si>
+    <t>Charity Penalty Unity in Diversity December 17, 2016 at Binus Kampus Anggrek All proceeds from the sale of this pension ticket are donated to Yayasan Anyo Indonesia which is a foundation that helps children with cancer or other diseases such as leaking heart Rumah Anyo serves as a temporary residence for children with cancer And can bring the patient to the hospital for further treatment Yayasan Anyo established in 2012 with the name derived from the name of the deceased Andrew Maruli David Manullang son of founder YAI Tag instagram in structuraltfi at pensiamal2016 Check out Shifter Interactive Graphic Novel in the app store starring Wil Wheaton I'm hooked learning Programming on my iPhone Join me and get Mimo at getmimo com download Unrica just unlocked the amazing Octocrush in Monster Legends Join now and gather Your own amazing monst Ers Bellatasya Unrica defeated an opponent after an impressive battle Join Monster Legends now and share your victories together Bellatasya Unrica just unlocked the amazing Rodolph in Monster Legends Join now and Gather your own amazing monsters Bellatasya Unrica overcomes a fearsome boss in Monster Legends Join now and conquer the biggest bosses together Bellatasya Unrestricted Monster Legends Join the Monster Legends Join now and share your victories together Bellatasya Unrica overcomes a fearsome boss in Monster Legends Join Now and conquer the biggest bosses together Bellatasya Unrica defeated an opponent after an impressive battle Join Monster Legends now and share your victories together Bellatasya Unrica just unlocked the amazing Bonetanore in Monster Legends Join now and gather your own amazing monsters Bellatasya Unrica just unlocked the Amazing Kimmel's Gift in Monster Legends Join now and gather your own amazing monsters Bellatasya Unrica just unlocked the amazing Pandalf in Monster Legends Join now and gather your own amazing monsters Bellatasya Unrica just unlocked the amazing Erpham in Monster Legends Join now and gather your own amazing monsters Bellatasya Unrica just unlocked the amazing Molem in Monster Legends Join now and gather your own amazing monsters Please visit my blog at resepmakanandaribellatasya blogspot com and feel free to leave comments</t>
+  </si>
+  <si>
+    <t>From the first time we enter this school for good luck until we meet again tm2016 sayonara Here's my 2015 Year in Review See yours at facebook com yearinreview number more time to waste HMMM D times join with us RTS JAKARTA2014 November 8, 2014 only 20 000 idr and you'll get Certificate Lunch and Snack see you there D LOL my new friend sorry my post just meet all these photos diligently study and see you again God bless D my new friend sorry post I just met all these photos Diligent learning and bye again God bless D this is what we call TRUE LOVE true story Battle of fans has begun Be the last one to share for a chance to win 50 CP Promotion can end without warning Lets get ready to rummmbleeeeeeeeeee Claim instant gifts in Join MAA Season 2 Continue Privacy Policy is OOI miss 8C Jesus is the road that leads to the kingdom of heaven without shedding blood no peng The forgiveness of Hebrews 9 22 So if there is no forgiveness for this there is no longer a sacrifice offered for the sins of Hebrews 10 18 This is a great friday IN miss all my friend It is too late for Jesus Happy New Year yeah D merry christmas to all of you D finally Free from mid semester wo I can new game hope we all saved God Got really so now mickrochip 666 already exist all over the world where can in hospital bank do not want to give mickrochip in hand and on forehead because can not be released again if until Let us get a chemical reaction Can be in the religion to all religions to be saved also what it feels so if we are called in god and never see ourselves on earth Say something about this ah long jekson has died long and For a long time we did not meet with jekson mengagat kenagan in PVDS with jekson become very menyedikan see su Dah on call God its nice holiday What's on your mind Say something about this aldi please Say something about this Say something about this Say something about this Say something about this Say something about this Say something about this Say something about this Say something about this Say something about this Say something about this Say something about this Say something about this Say something about this Say something about this Say something about this Say something about this Say something about this</t>
+  </si>
+  <si>
+    <t>Sell ​​Account Mobile Legend Rank Glorious Legend x359 Hero 26 Skins 15 GLORIOUS LEGEND GAMEPLAY Glorious Legend Gameplay Hijacked v Lmfao ginter What have you done oo Neymar In Or Nothing BRAGER Full Time Brazil 1 7 Germany 90 'Oscar 11' M ller 13 'Klose 24' 26 'Kroos 29' Khedira 69 'Sch rrle Almost 4 Years A new Maen AQW noticed V If you're an Action RPG Fan then you'll love Bad Nerd Tell your friends I just completed' Safe My HAIR 'on MMORPG School of Chaos I Just completed 'Mr Butt's Quest' on MMORPG School of Chaos I just completed 'WAGE A WAR' on MMORPG School of Chaos All Ma Crew I just completed 'Help us' on MMORPG School of Chaos I just completed 'Gym Gold' on Bad Nerd I just completed 'Playground Gold' on Bad Nerd I just completed 'Bright Gold' on Bad Nerd I just completed 'Pebbleswallys' on MMORPG School of Chaos If you love multiplayer games then you will want to join the MMORPG Project Tell your friends I just Completed 'Disorder' on MMORPG School of Chaos If you love multipl Ayer games then you will want to join the MMORPG Project Tell your friends I just completed 'Full Time END' on MMORPG School of Chaos laugh I just completed 'Zombie Teachers' on MMORPG School of Chaos I just completed 'Bloomie part1' on MMORPG School Of Chaos I just completed 'Zombies' on MMORPG School of Chaos Leveled in in War Online Leveled up in Global War Online Leveled up in Global War Online is a Global War Soldier I'm playing Angry Gran Run Get it yourself Reepz You embaressed Us Sincerly Stalkz on YouTube on YouTube Full Version In The Installation on YouTube It's Far Cry 3 Trailer Song on YouTube Best Song FarCry 3 Far Cry 3 on YouTube Also Dead Lights Edge Ip Man In fact this lag out in Geniusmeme Porridge Reupload format iya minecraft wallpaper genius I've just received a free Minecraft Giftcode You can get one too minecraftcodes me on YouTube I've just received a free Minecraft Giftcode You can get one too minecraftcodes me on YouTube I've just recei Ved a free Minecraft Giftcode You can get one too minecraftcodes me on YouTube I've just received a free Minecraft Giftcode You can get one too minecraftcodes me on YouTube see capacity was it step up 4 on YouTube dude ur the man on YouTube my country movie Is rock the raid on YouTube 1 Number 3 Best the only fuckin thing you consume is time on YouTube Is Right on YouTube record maan on YouTube was helping not screw it on YouTube laugh on YouTube seize everything you ever wanted you morons on YouTube wayne and em Is good better than justingayVEVO on YouTube dog but dawg you nigga on YouTube people like justin bieber on YouTube grenade noob on YouTube Best Genius Ever on YouTube which song in fix dong should you better lose it now in the music that moment you owe it you better Never let it go go you can get one shot do not miss your chance to blow this oportunity comes once in a lifetime krauser and leon is friend become enemy ironic on YouTube affraid o O LOL on YouTube on YouTu Be pro on YouTube big cheese o It's Chief Mendez on YouTube i love eminem on YouTube uploading videos on YouTube The Expendable 2 Free Facebook AAAAARGH plow tonight it feels empty i know why xD My Frost IS ALIVE DUMBASS on YouTube Like it My Frost IS ALIVE DUMBASS on YouTube to bad number very crane frost westbrook I liked a on YouTube video Pitbull International Love ft Chris Brown Like it I liked a on YouTube video Pitbull International Love ft Chris Brown I uploaded a video on YouTube Introducing My Self Will Be happy If like or Subsribe on YouTube upload videos on YouTube Cs 1 6 Download No survey LoL God kiki god indonesia they using chrome The Most Secure and Cheapest Car Key Like it Full Movie Of VGHS If Happy Ever After Fairy tales are full of shit One more fucking love song I'll be sick Ahhh Waiting for season 2 Walls Jebol Like it Funny Photo Like it God Why Walls Jebol Like it Funny Photo Like it Ne W Style Painting For Smokers Like it From Indonesia LOL my country on YouTube Like it From Indonesia LOL my country on YouTube Funny Like it First Epic Samurai Epic Deleted Scene More Fun Like It xD Similar Monkey Results Like it I posted a new photo to Facebook Like it Favorite Character In Basara 2 Hero Trapping People Wearing Beer Like it Overslept on Bread Like it VIP Tickets Football Match Like it Foreignization Foreign Company Like it Hopeful Wise People Like it Drunk Dog Like it LOL Funny Photo Like it Baby Funny Her Teeth Like it Have a lot of experience in life and be able to inspire students in various aspects What work I have 10 years later Funny Like it Cooling instant noodle Like it Funny Photo Like it A Love Story A Dog and Like it Success makes a stressful morning together clan ICE WOLF OO Muhammad Arif Basalama The Story of a Dog's Love and</t>
+  </si>
+  <si>
+    <t>Gathered at Marscity Hotel Punya Sodara xD Retweeted H Risnandar on Hari Risnandar Bapao rainbow healthy mini steady price Rp 1500 bapao special price Rp 5000 can 4 bapao interest l4nthink Capricornous Capricorn CaptainAddict capricorn does not like the same couple who ribet hooked a simple but extraordinary Find Out Your Facebook Profile Analyzer Result o Wow My anger scores 20 80 Brave and 20 Cowy this is My happy experience Hope it is a bit late X Mia 4 Retweeted Facts WOW in WOWFakta Only 70 percent of people will understand this 2 2 Fish 3 3 Eight 7 7 Triangle Retweet if you understand Retweeted Facts WOW in WOW Facts 1 x 2 x 3 x 4 x 5 x 6 x 7 x 8 x 9 x 10 seconds 6 weeks Retweeted true on damnitstrue CLICK ON THE PICTURE Facts WOW in WOWFakta Brain Equation Crazy people and geniuses are both equally have low ability in filtering the information it receives Retweeted Facts WOW in WOWFakta More savvy people Ering talk to herself Retweeted Body Language in Body Language Swinging feet while sitting position indicates someone is in a comfortable state of calm and enjoy the situation Retweeted Facts WOW at WOWFakta In America professional gamers are considered equivalent to professional athletes It's my first song on SoundCloud Retweeted true on damnitstrue I love sleep You forget about pain problems stress for a while I just defeated Amar in a challenge in poolbyminiclip AMEY in Amelevans happy new year ma bestiehhh in randyraa on lindogatotp Oscar Amelindoscarandy Retweeted Nathasya Priskila at nathasyasudaly Happy New Year at 9aUnited in AlvienGunawan01 on alvien Gunawan in samuel goodboy on rondadrian in shandyfranky at Chrisna Stark at lindogatotp on randyraa Retweeted Dea Baptista in DeaBpattinson Happy new year 2014 at shandyfranky at rondadrian in randyraa Thanks iya Make that already ucapin Task Uncle John Chika in chikarema Kangen randy yak Wwkw at Amelevans in ra Ndyraa wkwkdi MentionTo MentionTo your friends who always recycle their used papers Retweeted Dedy Corbuzer in DedyCorbuzer Your future is not dependent on your future school value you are in your own hands Retweeted Story Of My Life at Derpey Mom Come down it's dinner time Me In a Few minutes Mom NOW Me Ok downstairs Me Where's dinner My Mom at Derpey I pretend i dont care but deep down I really still do not care Retweeted Story Of My Life at Derpey Home is where You can poop peacefully Retweeted Story Of My Life in Derpey I'm not lazy I'm on energy saving mode Retweeted Story Of My Life on Derpey If I do not text back it's because I replied in my mind but was too lazy to physically Reply and I'm really sorry Retweeted Story Of My Life on Derpey Retweeted Story Of My Life at Derpey It's always fun listening to someone's lie w Hent you know the truth Retweeted Indonesia's forecast in TweetCAMMERCAPE Capricorn has serious and careful nature and is not vulnerable about displaying emerional Retweeted Indonesian Forecast in TweetRAMALAN Capricorn may not want to abide by rules if they see no reason or disagree Retweeted Dea Baptista in DeaBpattinson Congratulations Idul Adha GBU holiday at Kris CMathijs in Amelevans in DanuDeswara in evie noviani di randyraa di dery julia Mom Why is my room always so messy When I hear When I hear Myself eating crunchy food I wonder if people can hear it too Retweeted Story Of My Life in Derpey It's funny bc people think im quiet but im just listening to everyones convos and figuring out ur weaknesses to destroy you later in life there sa hutCapricorn is their Who are quite patient and tend not to rush into doing everything Retweeted Forecast Indonesia in TweetCAPRICS Men Capricorn has a keen eye appealing calm friendly clever mingle Me Retweeted Indonesia's prediction in TweetCAMRORS RELIABLES usually depend on the heart of the heart firm and unshakable in the face of hardship Retweeted Indonesia's forecast in TweetChapter Capricorn is a very charismatic personality and also the responsibility Retweeted Anime Cartoon in CartoonWords There's nothing wrong with this wrong world is a cocky human who feels having it Near Death Note Retweeted Anime Cartoon in CartoonWords Fear is not evil he just tells what your weakness Gildarts Fairy Tail Retweeted Anime Cartoon in CartoonWords Beautiful memories of the past just to Remembered not remembered Sasuke Naruto Retweeted Anime Cartoon in CartoonWords I do not need to follow other people's way enough I do in my own way Ouma Shu Guilt Crown White Beard Hibari Hibari Kyouya Retweeted Adult Dictionary in Dictionary Adult Only personal Weaker who thinks that everything should be easy to do but HARD TO See KO God Valdi Japar Giraldo Alexander Macho Anime Logic am i just dreaming Valdi Japar Giraldo Alexander Handi Hasan Uchiha Spongebob</t>
+  </si>
+  <si>
+    <t>Friendsday Congratulation to MOBIUS FINAL FANTASY for hitting 8 888 888 registered users worldwide Albertus Angga here see dong V what the hell is this life what a fucking crazy life XD yeye No one knows me No one trust me rate Always stands alone dear whatever you want but not anyone want to close with sun feel whatever you like but sun is so bright that the number one can see it with bare eyes even sun is the center but your egoism is the one that make you think that you Is the center and you forget what is the most crucial thing for this galaxy kok loss i sell corare Just in bid 30k what an odd way to live MY LIFE IS SO ODD Trolling life D realized that 'he' has arrived just waiting for 'home 'He built his' army' together and soon 'he' will 'sit' up there and say that 'he' is the 'king' where that day also I will leave everything without regretting I forgot to add more senile Wkawka HBD us XD Be better us XD wkawka ngomongdewe wogh cool william rank 12 XDXD I win cuy wkawkawa be happy yes XD again I can be in the middle of sperti not predict waiting in silence alone without silent reaction without expression aaaaaaa alone XD dikacangin level god XD this cool XD hoammzz bosen Play so people baek kok out no longer see it feels failed again this time running constantly bringing us all into the end of the same end of life hmmm can not yes I make it happy that I am this example of people FAILED all wrong This world is my enemy so something To be alone in this world Gini i think about designe later if anyone does not agree comment just FONTTT what iya happy neat Feel like I am nothing And you're right that I always alone Haha try to die with smile just trying to get what you wanted Arek x 4 please if there is already a group of me in the join if there is no one for dong duty there the task here is endless What do you call an forever friendship Is it really Exist EDMODO very lonely Most hate the new times enter yoga sabar yoo full of bullshit starting to hate myself open this if you dare wah fun laugh All I ever tried to do for him was the right thing and it only ever made things worse Rachel The Ring 2002 I want to forget someone but i can not i want to delete all memories someone still can not when i realize my memories is so full of someone '' then just get out of my mind lonely D everytime someone add me just confirm It's just that i just think ooh just like that just being kind to me for her her self shit status is not clear suppose i hulk definitely will not calm this world who likes yuri genre comment plz what you Think nothing is true no taught me logarithms again i forgot the sword art online infinity moment ok daa if i off ajah slamat night he almost all my status is destroyed by them when humans lie they always think about kebohonga N2 else when they are caught when humans are honest they never think about honesty in their future facebook g iso dbuka '' Kamen Rider I never confident with my looks But I confident with my emotion past emotion is part of ourselves that makes us able to be As it is now true story laugh the best I wish my dream come true so remember the past '' azz dizziness kah download not mari2 ayooo download less 7 hours more fate '' galau '' laughing what iya movie happy apik tugas2 kok sek onok ae '' When kon matine life is exhausting cool coy ngerii out playing corpse party hantunya make goosy kok let's light yes feeling okay okay ajah Friendz Kite all go to school date brpa zich Oi rek isa love know not greeting happy live class TTP s Create the g Naek I miss U Go for EURO 2012 deus created SmartMF on Freerice I just earned 2000 grains of rice to feed the hungry on Freerice com I just earned 1500 grains of rice to feed the hungry o N Freerice com I just answered 75 questions in a row on 20Freerice com I earned 500 grains of rice to feed the hungry on Freerice com pretty lucky holiday AHHHHH Lelet Download do not let me look handsome wkwkwkwk '' Mbajidin '' I love you ninja saga forever Is this your favorite fish so far yess aduchhh enak ujan adem bagus hehehe ok survived</t>
+  </si>
+  <si>
+    <t>Talk show Data Science with pak Risman from Samsung and Pak Dipta from Amartha with moderator Sir Alexander Agung and mother Yulyani Arifin Pouring that has been studied and tried for the last 5 years into one whole writing is not very easy Keep the spirit of Congratulations for the achievement Rafael Herman Yosef Willson Wijaya Albert Darmawan coach Felix Jingga Proud of you Whatever the situation condition and bad atmosphere around you stay calm and keep positive None of negative things will win Meet up with junior high school seatmate yet US citizen already hahaha 11 years since last time we Met is not it at 333lucas bestfriend highschool nostalgic childhood What is Data Science Let's learn about science happening lately For all SoCS students please take part in this talk show limited seat please sign up soon Binus BCA Funtastic Moment PPTI BCA Appreciation Day Champion 1 2 and 3 Outstanding Congratulations Jollybee BINUS My NL P natural language processing class lectures calculus lecturer college student campus learning class Jollybee BINUS goes to US for World Final ACM ICPC 2017 Good luck team Albert Darmawan Willson Wijaya Rafael Herman Yosef Felix Orange Yen Lina Prasetio BINUS UNIVERSITY presents iOS Foundation Program The iOS Foundation Program is Binus's special active student program designed to help you create apps as well as explore software development process on iOS The collaboration program with Apple is designed using Swift with a unique innovation framework that certainly helps you realize brilliant idea ideas Become real So kosongin when you start 19 21 June continued 3 July 28, 2017 Monday s on Friday at 09 00 13 00 on Campus BINUS University Alam Sutera Enroll Soon Limited Wave 1 17 26 May 2017 Wave 2 29 May 2 June 2017 Take registration form And listin d Envy you in one of these locations 1 BINUS UNIVERSITY Admission Room 1st Floor Campus BINUS University Alam Sutera 2 BINUS CENTER Syahdan 3 BINUS CENTER FX Sudirman Ga usa worry Make you a qualified active and fully committed to the end of this program is FREE and we also lend the Macbook Pro and iPhone for the duration of the program For more information please contact Ms Natalia Ms Natasha Mr Kelvin Tel 088801008385 WA 088212273919 Email iosprogramdi binus edu 2nd Call for Paper Due date June 20, 2017 Notification date 31 July 2017 Venue Bali Dynasty Resort Bali Indonesia Maliq D'Essentials at Binus Employee Award 2017 binusemployeeaward2017 binusuniversity Minister of Research and Technology Dikti Do not Worry if Not Able State Will Fee Menristekdikti Mohamad Nasir asked prospective students from the community can not afford not to worry about the cost of continuing education Binus Employee Award 2017 Do not worry about the depth of the sea To swim swimming relaxing weekend hom E relaxing pool end of the house Udah temenan in FB before I met yesterday Happy Birthday Meiliana Kheng D Sampe at the work table was moved there is a kasi beginian Abis touched directly sad indeed I'm so hushy yes HIMTI Farewell 2017 They are the students who did responsibility more than they have To success will surely follow all of your pathways Good luck friends at himti binus in socsbinusuniv himtibinus himtifarewell binus binusuniversity Dear all SoCS students Monday and Tuesday 8 May 9 there are 2 international seminar agenda at Orchid Campus and Alam Sutera Campus please to be followed Accept Love Go go go original old female young faceapp kekinian hahaha Ngobrol2 at lunch with friends who served in the border area of ??Indonesia with other countries recalled to this film Tanah Surga 2012 cc Muhsin Shodiq Meeting with some of the core board of association INACL Indonesian Association for Computational Lingustics education lecturer University Indonesia INACL Ind. Regular meeting Ind Onesian Association for Computational Lingustics Congratulations national education day smartlah my age Happy national education day smartlah my mother Bu naughty lecturer when active ngajar lagi hahaha Happy day labor Snapshot of my research papers with students lecturers and colleagues It was Happy long weekend allaaaa Who is still UTS who patiently yaaaaa In quietness And trust is my strength isaiah bible scenery view garden cloud Run meeting today Padjadjaran University of Parahyangan Catholic University under meeting collaboration university Steady Profession from Prof Tirta N Mursitama not know anymore dahhh its impression kok really long PhD honey morning hosh Aryo Pradipta Gema Suhendro Winton Theodorus David This is another lab playing in Argumentation Mining besides Darmstadt Facebook is building brain computer Interfaces for typing and skin hearing Call for Paper Deadline for full paper submission May 01 2017 Notification of paper acceptance July 31 2017 Deadline for final paper Submission August 20 2017 Deadline for Registration August 31 2017 Conference October 13 14 2017 cc School of Computer Science BINUS University Fredy Purnomo Yen Lina Prasetio Evawaty Tanuar Gabriella Jeklin Violitta Yesmaya Novita Hanafiah Meiliana Kheng Yulyani Arifin Bayu Kanigoro Dewi Suryani Ferdinand Ariandy Azani Cempaka Sari Hanry Ham Hady Pranoto Rini Wongso Afan Galih Salman Michael Yosep Andry Chowanda Rojali Saleh Aditya Kurniawan Widodo Budiharto Lili Ayu Wulandhari Natalia Chandra Sonya Rapinta Manalu Aswin Wibisurya Yogi Udjaja Yohan Muliono Syarifah Diana Permai Ohyver Etha Rhio Sutoyo Edy Irwansyah Irene Anindaputri Iswanto Alexander Agung Santoso Gunawan Count me in Why NLP special conference conferences are not indexed Scopus kesel wonder My forever thinner and taller best brother 88and89 Happy Good Friday God bless Congratulation for BINUS University School of Computer Science team Michelle Nesya Cyber ??Security Program and Eric Software Laboratory Center that got the rank 1 Line Dev Challenge Indonesia MoU cooperation between Esri Indonesia with Binus University for the submission of ArcGIS software license attended by Tangerang Mayor pak Arief Rachadiono Dear all Computer Science students please be present at this afternoon seminar from Coventry University UK which will be delivered By Dr. Maurice Hendrix Welcome to PhD life Friends of friends Keep the spirit Come and join the 2nd ICCSCI 2017 Ong Anneke Dwi Sesarika Rahmanto Williem Lex The first paper from your thesis is online yes Guidance 3 1 Internship today Is this a true story again Six months later only God understands Menperin stated for the early stages Apple will cooperate with Bina Nusantara Binus University for train of trainer because the company needs proudtobeBinusian lecturer HIMTI is my favorite D Once share thread kaskus ahhh cc Alexander Agung Andry Chowanda Congrats in BINUS BGP for having new Master degree programs M Aster of Strategic Marketing Communication S2KomunikasiBINUS Dear all students here are the steps to take advantage of Google Scholar and Mendeley in the writing of scientific papers such as thesis and others All these guidelines are neatly documented by Mr. Rhio Sutoyo Thank you sir Sembrani Train today</t>
+  </si>
+  <si>
+    <t>Please iya whose name is facebook Adeliana Yuwonno it's not me but do not know who do not in accept thankyou ABSURD Sofi's bday surprise Thankyou Kara Floral Headband Missyousodamnmuch Happy Chinese New Year D playing free rice again D 7a 'FORWARD success DY GREAT PrayForReportCard O Thank you for This day craziest fieldtrip sounds out nice D We'll show you what we're made of Let's see MarioMaurer 3 AFRAID Solo The Spirit of Java At GI with Ivan Tasia kim ko bozra andrew ko sammy listen my heello di delchocolatos lalalala Its my last day On 12 years P I'm addicted and I just can not get enough Why in every meeting there should be a farewell I hate it thank you D pray for my sister I am wrong what whatever tomorrow school hope will get the same class complain without miss jovelyn wish Me luck want to school with 7a with Miss Jovelyn 'kpan yaa meet sisca again' at MAG byebye sisca at Gading w michelle sisca black out grr byee anyer bye miss Jovelyn Delos Santos miss y Ou Arrived Jakarta now eating spicy rice hahh just arrived bali D omwt Soetta tomorrow D bali w michelle thank you D it's finish great stay at tasia's w preysi stella D eh all my new bb pin add yaa who want to ask messages to me D science Fail bisma p nice barca why the house instantly quiet every moment with you is the sweetest one 7a 3 we love you miss jovelyn '' you are the best teacher I 've had' book launching success 'i' m going to miss you Miss Jov my hp Too good ccd today gamasuk school big girls do not cry 'happy birthday Jeremy Yts p nyesek' Preysi's party birthday at alma's D fun happy birthday my beloved brother D kakak adry OOOMGG these friends friends are visiing my profile o Agatha Verencia 1136 views' Nita 'Jeanita 983 views Agung Kurniawan 542 views Adam Ravansya 300 views See who views your profile at 3 Frankestein D Jessica Vanelisa Stella Ella Preysi Reveni from yesterday at the turn not go in all like lonely ipa sm A science aaaaaa Happy birthday Mr Romeo D on the way is on the way bandung With al x in tasik RIP Pak Frans math is easy 'we love you curious play with Stella Ella Jessica Vanelisa p prepare something just stay' huah they are lucky '2months more Sorry me rifky '3 kids company 3 sm sh 3 secondhand 3 jb 3 michael buble 3 taylor swift 3 number more mellow affection number to galau why wanna fixie hoam kangen mr jusber' number more mellow affection number to dumbass D smash smile spirit yes success D Thank you yesterday play sma preysi ci bel ko hansel ivan XD bismaaa morgaan 3 yah want to join bsok aaa my meleh dngernya TT curious nw goat the movie aaaaaaa fruit tea crazy XD 3 bm p makasi lebai banget disgust wkkw lebai banget disgust wkkw pain really Jatoh pas handstand i close my eyes and i can see a better day D yeay my love my love my 3 basket michael buble 3 Felicia Layrensius we have new mama D pray for doraemon miiko shinchan and japan O ba Dmood high level grr you know that i love you p turtle 3 freerice ym thanks I'm feeling good today Ka ola's birthday party D freerice calm down please i want to meet you one more please i want to know your name 'dynasty yea Know kok jps lose conscious but phi gausah ngata2in also uleadnya can not on my lap xx az woy girl lebai ngaca plisss D woy girl lepai ngaca plisss D poster jb his water hit 'gapeduligapeduligapeduligapeduligapedulikokokgapeduli gaikutan problem phi jps point ko Francis Hansel ceriaa D defects my name So potato Stevie Liardi cocktail sam akentang far yesterday jps play same ceha XD basket crazy mad hi hai you want i want to be your girlfriend its intention sih want to find song for cheers even online p kwkw i nyerah deh nyarinya yesterday ivory same stella jeve kelvin albert Today same jesaya preysi albert kelvin aldo rifky just go home akwka D sick indeed facebook want to block glee oath amusing with you Abu merapi chat w Stella Ella vikin G boy reckless just the same ulalala pride kok same indo why main fair sportsman losing lost lalala argh 3 0 najis from the beginning have made indo down cheat copo najis malay tacky use laser firecracker what try cheat geek in jogja tomorrow jogjaa sampeeeeeee on the way is in The solo path tomorrow on the ivory iya solo bbye D party plow facebook sii adel D wkkw make pudding w stella jeve on the way is on the road cempaka mas with stella celine jeve monic gitta D make that feel copycat nyadar yes please outrage know Michael Akas Wicaksono makasi DD my touched wkkaa apabanget nyebelin HAHA still at school D practice i will be right here waiting for you 'thank you for this day Theresia Renata Shania Junianatha Felita Dewitama agnes DD Fun xD play the same tere shania fefe agnes D have a nice day so amin try the Best for you you 'study study study</t>
+  </si>
+  <si>
+    <t>Yearinreview2016 Andi Stn Adrian Crisandy Michael Benedict 5 25 Tired of your plain Old Ragnarok Server The wait is over AUDACITY RAGNAROK ONLINE Basic Information Founded 2 22 2015 Server Open Beta Test 2 22 2015 2 28 2015 Server Opened 3 8 2015 Website Server Pre Renewal Max Base Job Level 750 250 Base and Job Exp Rates 175000x 175000x Max Stats 1000 Max HP SP 20000000 5000000 Drop rate 100 for everything Disabled Third Jobs No Stat Seller Server Normal Mode Roleplay PK 4 slotted equips except shields which is 2 slots Perfect Dodge Enabled 50 Max AntiWPE RPE EditedGRF enabled AudacityRO Features Full Mall with Cards Ready to PvP Custom Headgears Custom Main Town Guild Owned Gold Room Custom PvP System Costume System NPC Afk System at afk Dungeon Instances Endless Tower Nidhoggur's Nest Coming Soon Custom PvP Maps with custom BGM's Fixed Currency to Promote Economy Resist Based Gameplay Switching Melee and Skill based gameplay Automated Events Dragon Ball Z Quest Custom Refining Syste M Hunting Missions Quests Fishing System Modified War of Emperium 1 0 and 2 0 Stage Game Casino NPC's Slot Machine and Headgear Gacha Custom MvP Mobs The Seven Deadly Sins Nanatsu number Taizai Reference Sacred Weapon Quest Pokemon and Naruto Pets Housing System Coming Soon Battle Grounds Coming Soon Download links Full Client Torrent Link Lite Client Torrent Link Register here disband replaced Ngabuburit whose contents he also forgive me if you can Beat me if you can Beat me if you can Beat me if you can Beat me if you can Beat me if you can Beat me if you can laugh ohh nice picture D something dies i wonder if it's really all over That's why it feels so sad No It's not Over as Long as someone remembers it's never over '' e '' First FPS game on Facebook FPS game on Facebook go to GM its very good Maintenance ampe this hour from 9 am Lag DISAAT DAKU OLD PLEASE READ OOOMGG these friends friends are vi Siing my profile o Daud Kurniawan 1136 views Aldy Pratama 983 views Febriana Tindaon 542 views Brandon Lee 300 views See who views your profile on the wait and see I'm going to show you what is really there Lose In This No Higher Or Lower There Is Always Only One Truth Hoo so much too who is awake the same nggk sleeping semalem good good wakakakakaka monkey BB I can not be mats nggk nggk can di nyalain zzz gloom Friend FB 100 Pas wkwkkwkwkwkw Friend FB 100 Pas Wkwkkwkwkwkw Banner Top Banner The IDIOT i saw you for the first time i know you were the one you did not love a word to me but love was in the air then you held my hand pulled me into your world from then on my life has Change for me now i never feel lonely again cause you're in my life Love how can i explain to you the way i feel inside when i think of you Then you held my hand pulled me into your word from then on my life has change For you now i never feel lonely again Cos you're in my life When i saw you for the first time i knew you were the one On the wings of death by the hands of doom By the darkest light from the darkest moon Crossing silent seas over mountains high For we stand as one Tonight On the black wind forever we ride on together Destroying your evil with freedom our guide When the master will storm us He'll stand high before us Our hearts filled with splendor Our swords will shine over the light I Want To Get Back The Strength I Lost Physicx for wkwkkwkw stupid woi riki keffas on same call Ws</t>
+  </si>
+  <si>
+    <t>HT MADRID 0 0 MUNCHEN halamadrid Want to CS Free GO GO without Deposit JUDY SkinSilo is a hint xd Link Login via Steam Continue to REWARDS Tab Fill in email trade url and others follow instructions just use my referral code SAMUELHALIM can 250 coil out of it when it is finished All you will be able to get a bullet if you want to look for a coin again to tab EARN CREDITS now you can join it all therein coin AntiJUDY 0ToSKIN Hery Franky Victor Franky Kevin Tj Dimas Arsaya Mi Chael Daniel Agung permit tag boss Wtb gamesteam rate lowest new video is up friend Yg pingin see people gans play dota csgo and others tlg on subs iya Youtube com channel UCzmZnH993iw vAWa0BBKkHQ Makasiiii go Steady soul Photo same ex Fnatic 8k mmr in one picture Noob am Steven Bonny Oriel Mihawk Victor Franky Hery Franky Hery Franky not for you Yg selling Gold dragon nest servee void PM Just one last dance Hery Franky hery Hery Franky 1 more God pls indonesia Chroma for the win Later Uan your daughter miss Nana Podungge Pake sandals on campus D Wts game csgo in 100k stock lot Line sam 2107 Djing Tj WTS Adidas NMD R1 size US 9 5 genuine UK Certainly not in Asia New goods up to indo 30 setember PM for price thank You 777 The one and only Cant wait joki pokemon go Lvl 1 15 100 rb Lvl 1 20 150rb Lvl 1 25 200 rb Lvl 1 30 275 rb No softban Aman Line sam 2107 No hp 082226119865 Pake google bsa ptc wear can Wts off on dusty Interests Pm course Lunchhh WTS ATHREOS GOD in 100k Todays draft keep Nb if to semarang search Lumpia make by2 to icipy yes p Wts Scg x10 Todays pre WTB Nissa PW origins Lilliana PW origins Thunderbreak regent Gameday promo Korean Shit got real Pending first Erick Widjaya Rinto KUr Dea Vania Vito Alexander Harliyanto Canceled Shit Must read Aji aji used to be your hero now What the fuck RONALDOO JUVENITI WE CANT HEAR YOU NOWWW PENALTY ISCOO 1 MOREE WE ARE STILL ALIVE May Chen Font number milan nocerino 20k exc postage FOR SALE JEREMY S COTT FOIL WINGS sizs 43 1 3 BNIB Brand New In Box Cp 082226119865 7CA4568F Specials who know yes Vito Alexander Harliyanto Mx Wkwkwk 51 you how much Alex Snow Devin Christian Save read later Haha Devin Christian Alex Snow Devin Christian Jengkel Devin Christian Narsis used to be Alex Snow Beautiful is not vin Devin Christian Devin Christian Alex Snow Jeff Choi my girlfriend Sleepover in Alex Snow's room I have a look at my pictures sharing jokes and news as well as support during Good and bad times I'm happy to have you around my friends I'm going to be watching for a while I'm going to be watching how to take care of the friendship just like me So if You are reading this then thank you for being a part of my life So leave ONE WORD on how we met DO NOT SHARE Once you respond I will inbox you this copy then paste on your wall so I can leave one word for you Ronaldooo Ooo halamadrid Steady this pitt Fia Kreuz Sad hahah May be aware Fia Kreuz Hopefully the goal was indeed a good sign and in the allow Why oh why All i can sayang is i was enchanted to meet you Be thankfull of what you have cause something that you will will never get Back but there are manythings you can learn for what you have done in the past Its over Mantap is skipper ferdinand 1 0 3 goals to go Come on guysss 2 2 800k pm only Sfccc Persija 3 5 sfc Next sfc opponent arema yoo hajar Ready 1 Minipom Male Snow White stb cotton wool Glamor 3 2 jt 2 Minipom male Non stb White Unyu2 1 7jt 3 Husky elephant Top Blue eyes 2 5 months Gede 7 jt 4 Doberman male Non stb Cut tail Vaccine 2 jt 5 Pitbull non stb female Prospect sporting Price 1 2 1 6 jt 6 Pitbull male female Stb Prospect sporting Price 1 950 7 Chh male 7 months Stb Color draw 1 050 rb 8 Golden male Cucu import USA 2 blnan 2 4 free shipping java 9 Bully 3 males 1 female 3 months Stb Kupir 3 7jt M 10 Malamute female 6 months Child import Price 6 5 8 5 jt 11 Pug male 2 months Stb 2jt 12 Chh Jantan 3 months Stb 1 8 free shipping jawa 13 Husky indukan 3 years Stb Bntr again loop 2 050 free postage 14 Corgi male 4 months Child import 3 7 jt 15 Bully indukan 1 tahun Stb 3 2 jt 082226119865 7CA4568F Decrease the price just putig Rvp Eyes Wazza Smart monkey This cave of cave is Nanna Lee Barca serikah Yuhu Wtf For sale gucci belt made in italy Special who just know big Uda yeah now your ill Ati lek ndelok profile e wong kui BU kok terusan di 125k free shipping take all in 100k Jatidiri just far better than this stadium v ??MAY GOD BLESS INDOBESIA NOTHINGISIMPOSSIBLE Loss maning loss maning 1 1 end ny Pssi asuuuu Seneng e meet people tuany Evan dimas Josss Van dijk 1 0 Right Gymnastics morning with mother teacher Ida Jokam Safitri Shofia Yusuf Congratulations fast fasting 19 years end ny finish v Mental champion Trus vladimir in what in tuhh Diving oh diving PERSIPURA German 1986 jaspo M Muluss 300k excl Postage 7CA4568F 082226119865 Had smalling Reussssssa Herpes meneh auuuu Nanna Lee Tyas Princess Anjarini Ida Jokam Safitri Shofia Yusuf do you miss us Tyas Princess Anjarini Devin Christian Vito Alexander Harliyanto Alexis Snow Tyas Princess Anjarini Ryan Hartley Alexis Snow Devin Christian Benzemaaa Pepe 2 1 Kroos still the Best Ronaldoooooooo 1 1 Ea pique so goalkeeper 2x Come on benzemaaa Classico time 3 oh 3 2 0 broo benzema kroos class Sup looserpool 1 0 CR7 Wallet oh purse kimpet Not sack yeah v Since i dont go to gym my weight loss 3 kgs Weird Semeru oh Semeru Style classic is v Lonely gilaa Ngakak see Fia Kreuz fear watch annabelle Alexis Snow Nanna Lee Vito Alexander Harliyanto Alexis Snow Devin Christian Samuel Johan 16 days to go Same who hayo Ea lost Freak Minhooooo Asikkkkk 3 1 In fact reall madrid c wkakakak Real madrid b kirain Castilla v Asu kabeh All the shit that you do Kere hore at 250k inc special post today 2 1 nah lohh kuwait v Tiboooo 1 1 Low Class This madrid night can lose crazy Vito Alexander Harliyanto Wednesday friday saturday sunday futsal josssss why Look at me do i look affraid Madrid play what time iya Agree Meet you mr bob in s2 it awkward wkakakakak Im forever yours When emotions beat everything Fia Kreuz Andy Kim Happy Birthday my girl Wish you all the best May all your dreams come true God bless you Anjrit is next to the smell of perfume ala arab body kira2 110 kg still make up keep it self awareness oittttt Bs facebook an chat not in reply soreati The story candid Back home budal Timing Gambling coy Lanang ra know self Monkey pinter Bee Enakkkk Sooo saddd Welcoming party There is telo Time for taking restttt Hk Suttle suwi plane delay kacauuu GOOD LUCK DI MARIA Kudu sabar D Hawa2 in live turu Laper want mcd malem2 modar Miss you already Haduuu 1 0</t>
+  </si>
+  <si>
+    <t>Wow best moment ever I'll go to china if this is true It's me take 3rd place in death match in 'Outpost' level Check out this performance of This Trainyard 'level Check Out this performance of Baby on Sing Check out this performance of Gangnam Style on Sing Great filzxhintz has enough experience to reach a new level hoho Great filzxhintz has enough experience to reach a new level yeah have fun Yeah Great filzxhintz has enough experience to reach a new level You make me falling in love with you 3 Crazy 3 cute I'm so lonely broken angel 3 her so much With tutut Mas po and vincent wkawka Ryan I love you Me Mr Adi Edward and Vincent You're the Only One Never give up No matter how weak you are crazy P cute 3 her D You're My Ice Cream You're My Dreams neseli in china Nest has appeared in gemscool Let's play together together again Create guild again Keep hajar manticore and apocal Ypse Who wants to enter the guild later can add my FB Stay Nunggu patchnya Go DN Gamerz One In A Million Double Protection from the insects On Again RezpectorZz is such a drag need volunteers to play DN and help me with my quest Need it Heroes way cash cherry Credits Party Time Please play DN and join my guild HunterDazz this is a link to download DN file discotion Crazy god skillnya Members in my guild to Fwar every day Love number one Trust number one Believe number one LTB Just for Gamerz dino fashion hahahaha race promotion promotion What is delicious oh mad I copo I want to be free So sad many tests next week and tomorrow NeCheez Man Necheezzz For people who retired PB bisgini there is DinoMode that exciting This is orang2 who will represent surabaya in LS Slamat championship bwt Hydro Thunder dropdropdropdropdropdorp bassbassbassbassbass wow Ah just go home later mlm work stacked all TQ Put Your Hands Up Ge Ge Ge number Kitaro klek klek klek klok what a bad d Ay Wow cool man How poor I am Always anime I love Fairy Tail Ferarri in front of hotel jw marr ot jakarta wanting a holiday tros enaknya road road in mall jakarta same office employees who are also gamers already in jakarta 4 days filz Golf Stick accidentally to throw to Roof Embarrassing Zzzzz play hear music watch tv study and have fun Like it like it Just play and have fun Hmmm in school that play lost saga only 2 people any more who want to come Kalo there are many direct bwt guild itself Oh Gila FBku got the word virus Bus from jakarta yesterday from JB go home 1 2 days again I will go to Jakarta At Saturday I will watch Justin Bieber's Concert If you want to find me there I sit at VIP chair Happy Holiday all Check out my friends I'm in trouble But in the end I survive Lost Funny and fun saga hehehe CPU has dibetulin hahahaha seep download grand chase susahnya error keep pdahal internet flame continue 12jam zzzzz Remix music with bassdrop is my favorite Poo yes people have to ha Ck mine Emange orange who ngehack g have 2PM capital why many problems come to me am I am chosen one TT ID ROku dihack same people Pdhal already a lot ngecash aaaaaaaaaaaaahhhhhhhhhhhhhhhhhhhhhhhhhhhh So Fun I love to watch animax movie because it is COOL Baune buffalo ask for ampoen I YUI Add Jefferson Utomo why hahaha why can not I stop playing in ordinary days is this thing cause me to get a bad mark Abraham ojok ngehack FBku wew gone home from rumahe chrisna bsk gathering again laugh oh Utsnya pek keras2 kabeh TT Down the distant road Who ngehack FBku will be beaten if nemu oi hook ngehack FBku buandotz iki ZZZZZZZZZZ tell me what ae statuse iki play RO that can make me so happy and enjoy but i dont know why my GF worse than oh man wew out ngerjain UTS at home Chrisna albert albert Mbe win s Chrisna play tekken jago pek all dikalahno great2 Tsunami tsunami who wants to swim free to Japan why Sad Mode i miss you very much Where are you now sour pek Papa mbe mama same ae if blanja lama banget Want ngamok pek Am I faded like a shadow i have to do something Pusing bis tricked people in zzzzzz games lost 25 jt zeny AHHHH Do not Punk with My Heart I feel like a bird fly on the Sky everytime I hear music Today cape poll Is this Love</t>
+  </si>
+  <si>
+    <t>Fresh Selling Yeezy v2 cream white BNIB receipt Neo Soho Sz uk 8 5 Contact Line brianhaessel Wa 081 219 988 008 jualyeezy adidasyeezy yeezyboost jualyeezywhite adidas yeezyboost350 yeezynesia yeezyjakarta jualyeezyboost topitem topshoes yeezyputih it New pin PS4 Apache do not automatically translate dong must download the client ma patch Mobile Uploads i got free Gw Again films shirt angie funny yes i need Mobile Uploads FREE 520 FACEBOOK CREDITS FOR LIMITED TIME ONLY HURRY UP like it FREE 450 FACEBOOK CREDITS FOR LIMITED TIME ONLY HURRY UP FREE 450 FACEBOOK CREDITS FOR LIMITED TIME ONLY HURRY UP 450 FB Points That you can Use for everything Let your friends know that you've sent a free gift want to eat A free gift want to watch INCEPTION Let your friends know that you've got a free gift Let your friends know that you 'Ve sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift Let your friends know that you've sent a free gift let your friends know that you've sent a free gift let your friends know that you've sent a free gift Inazuma 11 Let your friends know that you've sent a free gift Let your friends know that you've got a free gift Let your friends know that you've got a free gift Let your friends know that you 've sent a free gift Let your friends know that you' ve sent a free gift Let your friends know that you 've sent a free gift wkwkwkwwk Let your friends know that you' ve sent a free gift Let your friends know that you 've sent a free gift Let Your friends know that you've sent a free gift hhhhhhhhhhooooorrrrrrrrrr eee hahaha Click the cute pet below to own it now Do not forget to make a decent offer Mami can fish clown applefish i caught a crab oh iget number Please be my neighbor in FarmVille Please be my neighbor in FarmVille</t>
+  </si>
+  <si>
+    <t>Telekinetik why not Life is full of blindness VIRUS hate bosen when it is kelkom on the way is on the solo road Yeah back to jakarta back to solo in 7 days back to asssalam ter love good bye jakarta TT physical preparation for tonight now playing rf memories on the Way is on the way bandung Just installed ChatSend that allows me to send files up to 2GB for free on Facebook chat Check it out virus again recurrence Freak males learn traktir sekelas direct kopong laughing solo jakarta 28jam on the way being on the solo road tomorrow can meet Kakak cihuyyy finally holiday also huh finally my head en be alive BARCA beh 16 000 ajib 2 days again reunian SD is good to the island tidung wkwkkwk on ngerjain the Mochammad Fadhilah Nuris ampek crying make laugh D wkwkwkwkkw so miss the pb again this is my hand more and more mak kok Swollen yes beutiful girl oh my hand swollen not lost missing again fit play ball zzzzzzzzzzzz now playing bruno mars just the way You are ilill llili 4l4yerzzz pingin nightly nightly so yes D good night D I'm just ordinary people who just want to be loved and I was not perfect like you I was just a weak man without love love that you gave me that made me strong With her love that I live that love love her make her feel the taste of a lover's affection Oh her eyes her eyes Make her stars look like they're not shining Her hair her hair Falls perfectly without her trying She's so beautiful And I Tell her every day this fucking ahk who ngebajak my FB is not clear this azzzzzzzzzzzzzzzzzzzzzz now playing us forever why TL on twitter is not the way yes bad I dikerjaiin Muhammad Fadil Al Katiri again damn ngeladenin boy ngmong make me laugh there is no nice yes if people we Love has gone far menainggal we ahk blom online also it's kid online dong plisss me pingi talk ma you tired of ngurusin boy VV yesterday hit the tsunami as earthquake continued news miyabi its like Where dong this aiueo BABIbubebo cacicuceco you are not the right heart for me but you deserve for others yey finally buy Hp also In this life we ??can not always do great things But we can do many small things with great love In this life we ??can not If you want something you've never had you should be willing to do something you've never done If you want something you've never had you to be willing to do something you've never Done yuhu tomorrow terakih repeat week but the day senesnya uts again yes gods just learning hard feeling very much moaning ci thinin again with the father bangke hopefully the average score of 9 or not he over kkm all aminn malesss really do not da excited to chat DEWA deserted night It's a little crowded tomorrow is no longer able to go online again hiks hiks' why you go to me Hard to find a way to get through It's a tra Gedy Pulling at me like the stars do You like like gravity Even if the wind blows It makes it hard to believe How iya gonna love How iya gonna feel How you gonna live your life like a dream you have is real And if you lost your Way I will keep you safe We will open up all the world inside I see it come alive tonight I see it this song rada rada rokest word can not be friends eat friends so confused me That means how flying without wings sepiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiii i want to have i nice dream help me kelaparaannn all tomorrow there is badminton not i just waiting pingin burn corn but most delicious with mas mas in jawa when going to jakarta mas ganang wildan safiq mada and other brother Laugh to see vidio song tenteng a name wakkakakkakakkakakakkaka we will not go down my friend kasian very already in two go on huh anget dog make this curious child two huahhhhhhhhhhhj next month tired really Run out arcici have a nice dream all good night I love you my heart 4 ever I can I need love to much Sometimes God brings you with some improper people so you can be grateful when meet the right person i waiting you perfect perfect his ahk ill Behh ajib ui an 8th grader make a group someone's dong she is so beutiful ahahahahhaha a rather melancholy song wounded heart hehehe huh not satisfied the same self on why this hell is my seventh grader who is weak without you i err without you love that you give So big for me lonely this morning well today is a blessing day where now day labir prophet we muhammad SAW i wonder who and i wonder why go to monas with my friends cuyyyyyyyyyyy friends what else srek nye kawokawokaowkawokawokawokoawkoawkoawkoawkokwoakoakwo laugh see srek falling pants nye hole also Awkowkoakwokawokawokawokawokawokawo kenape tomorrow not holiday aje sih to all good night have a nice day tomorow Preparation tomorrow road way together hafidz gamal srek rafki firli emir abdrogba lonely banged tonight I weak without you I am vulnerable because Love is gone from you Who is able to flatter me As long as my eyes are open Until the heart does not beat Forever I am able to remember you From You I Found my life To me You are my true love at that time is not the moment for you and me oh hungry com why ye I am sick or it is my dying ye if it is sick really do not even recover kloudah dead knape not dead dead yes but hopefully dead sahid aminnnnnnnnnnnnnnnnnnnnnnnnnnnn lonely yes Noon like this bismillahhirrohmannirrohim yeah gods hope this day is a good day amin sad for once today hopefully tomorrow become a better day aaaaaaminnnnnnnnnnnnnnnnnnnnnnnnnnnnnn behh ujan molo so can not cool my shoes again really bad luck hah he just past not the future My future is definitely brighter tonight tonight delish being what yes bon jovi it's my life complicated her these people huaaaaaaaaaaaaaaaaaah lonely night is my samurai ouch chased the dog where jatoh having a bad view aje the dog dying mu is near njing good night all I want to sleep hoaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaammmmmmmmmmmmmmmmmmmmmmmmmmmmmmm hoaaaaaaaaaaaaaammmmmmmmmmmmmmmmmmmmmmmmm evening delicious it ngapian Yes sleep what it is this bewildered ahk bored this is not da online weqs desert amad this feeling nothing can be invited chat astagfirulloh agin night really cool emoticon facebook smile frown tongue P grin d gasp o wink glasses 8 sunglasses 8 grumpy unsure cry 'devil 3 angel O kiss heart 3 kiki squint confused o O upset O pacman v curly lips 3 robot Chris Putnam putnam Shark Penguin rainy morning shit maker pale shit fuck good night all Faqih Chaerul Rachman your dog ye noisy you sene tod good at 9 o'clock Ngak may sport two weeks dizzy happy birthday brother sarah yay owwwwwww Wwww yay battle has finished slamat noon world gilalo mir yay hoho hmmmmmm laugh hmmmmmmm must learn all out soon war the same book notebook pencil grrrrrr wow yay Hi all my frieds I just want to introduce a kind of American Football at Florida State University to you all My Dad and Mom are very happy to watch this video to enjoy your previous study at graduate program ata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +497,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -273,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -286,6 +544,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -589,16 +857,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B77" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="146.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -613,7 +881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="225" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1.02084967776092E+16</v>
       </c>
@@ -624,7 +892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="360" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1558335764186290</v>
       </c>
@@ -646,7 +914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="405" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1603666146318970</v>
       </c>
@@ -668,7 +936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="270" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1503013389711870</v>
       </c>
@@ -690,7 +958,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1664619910218330</v>
       </c>
@@ -701,7 +969,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1710934792254580</v>
       </c>
@@ -723,7 +991,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1776931975657530</v>
       </c>
@@ -734,7 +1002,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>1503436566374510</v>
       </c>
@@ -745,7 +1013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="345" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>1302754253095590</v>
       </c>
@@ -822,7 +1090,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>1674814679200770</v>
       </c>
@@ -844,7 +1112,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>1476126192451280</v>
       </c>
@@ -855,7 +1123,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1285238954857510</v>
       </c>
@@ -877,7 +1145,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="405" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>1499947146722760</v>
       </c>
@@ -888,7 +1156,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>1471104562949080</v>
       </c>
@@ -899,7 +1167,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>1.02069225664212E+16</v>
       </c>
@@ -910,7 +1178,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>1695970123754140</v>
       </c>
@@ -921,7 +1189,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="300" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>1581273871884460</v>
       </c>
@@ -932,7 +1200,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>108152746435673</v>
       </c>
@@ -943,7 +1211,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>1.02073219384417E+16</v>
       </c>
@@ -954,7 +1222,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>1661673027178000</v>
       </c>
@@ -965,7 +1233,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="315" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>1412803912120300</v>
       </c>
@@ -976,7 +1244,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>1088635351269570</v>
       </c>
@@ -985,6 +1253,457 @@
       </c>
       <c r="C35" s="2" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>1.02103312393397E+16</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>1357219091028340</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="345" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>1.02069874632846E+16</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>1.02134517511523E+16</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>465079827171159</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>2110354235646890</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>1.01552980934163E+16</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>1163935713712990</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>1457917717563260</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>1360716674016200</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="390" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>1943117612600890</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>1.02087985644214E+16</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>1.02098377519691E+16</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>1.02093544692382E+16</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="270" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>1.02095049188757E+16</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>1440698202640690</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="8">
+        <v>1435002576559350</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <v>1711262692223430</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="330" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
+        <v>1443459105674990</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
+        <v>1770467019635090</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>1882983061919320</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
+        <v>1.02033259701875E+16</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>1.02096458777252E+16</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
+        <v>1336085826498680</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="8">
+        <v>381700002231380</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="360" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
+        <v>1662936723746930</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
+        <v>1.02096573370991E+16</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="8">
+        <v>1522703281081240</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
+        <v>1700772203273890</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
+        <v>1009323859204590</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
+        <v>1377408809009750</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="8">
+        <v>1516256621779680</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="8">
+        <v>1485465054838930</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="390" x14ac:dyDescent="0.25">
+      <c r="A69" s="8">
+        <v>1488270041245150</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="8">
+        <v>1.01548411845644E+16</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="8">
+        <v>1530212696991970</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="345" x14ac:dyDescent="0.25">
+      <c r="A72" s="8">
+        <v>1395089483905200</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="8">
+        <v>1327834690646130</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="405" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
+        <v>1477063715647040</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="A75" s="8">
+        <v>1.02069403765479E+16</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="8">
+        <v>1754618417886780</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
